--- a/assets/data/Hunt_v2.xlsx
+++ b/assets/data/Hunt_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Discord_Bots\doubleLung_Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Discord_Bots\DoubleLung\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93B0C6-C99E-4E4C-BADC-992E8B8891CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F46FBE-7FD0-4CB7-A1D7-6B87508C458B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="11910" windowWidth="28800" windowHeight="6000" tabRatio="908" activeTab="5" xr2:uid="{49463AEE-7DC0-4014-BA40-AA309B07B9F3}"/>
+    <workbookView xWindow="36840" yWindow="5445" windowWidth="28800" windowHeight="6000" tabRatio="908" activeTab="6" xr2:uid="{49463AEE-7DC0-4014-BA40-AA309B07B9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4626" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="2037">
   <si>
     <t>active</t>
   </si>
@@ -6003,6 +6003,168 @@
   </si>
   <si>
     <t>["Red Deer","Sika Deer"]</t>
+  </si>
+  <si>
+    <t>speciescommand</t>
+  </si>
+  <si>
+    <t>bighorn</t>
+  </si>
+  <si>
+    <t>blacktail</t>
+  </si>
+  <si>
+    <t>southeastern</t>
+  </si>
+  <si>
+    <t>whitetail</t>
+  </si>
+  <si>
+    <t>wildebeest</t>
+  </si>
+  <si>
+    <t>mouflon</t>
+  </si>
+  <si>
+    <t>wildebeast</t>
+  </si>
+  <si>
+    <t>raindeer</t>
+  </si>
+  <si>
+    <t>rockymountain</t>
+  </si>
+  <si>
+    <t>sidestriped</t>
+  </si>
+  <si>
+    <t>medved</t>
+  </si>
+  <si>
+    <t>silverridge</t>
+  </si>
+  <si>
+    <t>whereabouts</t>
+  </si>
+  <si>
+    <t>sceen</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>07mm</t>
+  </si>
+  <si>
+    <t>7milli</t>
+  </si>
+  <si>
+    <t>07milli</t>
+  </si>
+  <si>
+    <t>7millimeter</t>
+  </si>
+  <si>
+    <t>07millimeter</t>
+  </si>
+  <si>
+    <t>20sa</t>
+  </si>
+  <si>
+    <t>470db</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>12guage</t>
+  </si>
+  <si>
+    <t>41045</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>12g</t>
+  </si>
+  <si>
+    <t>30ought</t>
+  </si>
+  <si>
+    <t>50caliber</t>
+  </si>
+  <si>
+    <t>30ought06</t>
+  </si>
+  <si>
+    <t>30ought6</t>
+  </si>
+  <si>
+    <t>ought06</t>
+  </si>
+  <si>
+    <t>ought6</t>
+  </si>
+  <si>
+    <t>65mm</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>65milli</t>
+  </si>
+  <si>
+    <t>6mili</t>
+  </si>
+  <si>
+    <t>65millimeter</t>
+  </si>
+  <si>
+    <t>6millimeter</t>
+  </si>
+  <si>
+    <t>50cal</t>
+  </si>
+  <si>
+    <t>caplock</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>cb165</t>
+  </si>
+  <si>
+    <t>sxs</t>
+  </si>
+  <si>
+    <t>20g</t>
+  </si>
+  <si>
+    <t>20guage</t>
+  </si>
+  <si>
+    <t>cb60</t>
+  </si>
+  <si>
+    <t>hawkedge</t>
+  </si>
+  <si>
+    <t>cb70</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>6milli</t>
   </si>
 </sst>
 </file>
@@ -6059,12 +6221,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6080,7 +6248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6170,6 +6338,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11170,53 +11341,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA1C4D7-E97B-4654-9B4A-178195F9AA4A}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>722</v>
+      <c r="A1" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>974</v>
+      <c r="A7" s="27" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -11224,15 +11392,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>3</v>
+      <c r="A9" s="26" t="s">
+        <v>981</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -11240,114 +11408,122 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>785</v>
+        <v>3</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>975</v>
-      </c>
+      <c r="A11" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>977</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>978</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>986</v>
       </c>
     </row>
@@ -11358,276 +11534,281 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F069AB5-B36F-481D-8674-EDB4DE4D15A4}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>1004</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>788</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>959</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>995</v>
+        <v>960</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>996</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>790</v>
+        <v>962</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>997</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>767</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>999</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
         <v>791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>1000</v>
+        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>1001</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -11638,164 +11819,167 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F0560E-3944-427C-8950-2A67E8822FAD}">
-  <dimension ref="A1:AW96"/>
+  <dimension ref="A1:AX96"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>794</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>724</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>800</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>805</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>808</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>1038</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>1039</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>1018</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>1019</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>1021</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>1022</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>1023</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>1024</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>1025</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AG1" s="26" t="s">
         <v>1026</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AH1" s="26" t="s">
         <v>1027</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AI1" s="26" t="s">
         <v>1028</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>1029</v>
       </c>
-      <c r="AJ1" s="26" t="s">
+      <c r="AK1" s="26" t="s">
         <v>800</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AL1" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="AL1" s="26" t="s">
+      <c r="AM1" s="26" t="s">
         <v>1030</v>
       </c>
-      <c r="AM1" s="26" t="s">
+      <c r="AN1" s="26" t="s">
         <v>804</v>
       </c>
-      <c r="AN1" s="26" t="s">
+      <c r="AO1" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="AO1" s="26" t="s">
+      <c r="AP1" s="26" t="s">
         <v>800</v>
       </c>
-      <c r="AP1" s="26" t="s">
+      <c r="AQ1" s="26" t="s">
         <v>1031</v>
       </c>
-      <c r="AQ1" s="26" t="s">
+      <c r="AR1" s="26" t="s">
         <v>1032</v>
       </c>
-      <c r="AR1" s="26" t="s">
+      <c r="AS1" s="26" t="s">
         <v>1033</v>
       </c>
-      <c r="AS1" s="26" t="s">
+      <c r="AT1" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="AT1" s="26" t="s">
+      <c r="AU1" s="26" t="s">
         <v>1034</v>
       </c>
-      <c r="AU1" s="26" t="s">
+      <c r="AV1" s="26" t="s">
         <v>1035</v>
       </c>
-      <c r="AV1" s="26" t="s">
+      <c r="AW1" s="26" t="s">
         <v>1036</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AX1" s="26" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>880</v>
       </c>
@@ -11806,7 +11990,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>939</v>
       </c>
@@ -11817,7 +12001,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>940</v>
       </c>
@@ -11828,7 +12012,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>941</v>
       </c>
@@ -11839,7 +12023,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>849</v>
       </c>
@@ -11856,7 +12040,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>726</v>
       </c>
@@ -11873,7 +12057,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>942</v>
       </c>
@@ -11884,7 +12068,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>943</v>
       </c>
@@ -11895,7 +12079,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>887</v>
       </c>
@@ -11906,7 +12090,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>945</v>
       </c>
@@ -11917,7 +12101,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>884</v>
       </c>
@@ -11930,7 +12114,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>947</v>
       </c>
@@ -11945,7 +12129,7 @@
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>887</v>
       </c>
@@ -11960,7 +12144,7 @@
       </c>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>949</v>
       </c>
@@ -11975,7 +12159,7 @@
       </c>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>950</v>
       </c>
@@ -13444,7 +13628,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H37"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14165,7 +14349,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E33"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14631,7 +14815,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14758,7 +14942,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18333,7 +18517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10FC8FB-6680-A940-A410-8E355950D6A9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18557,8 +18741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD2FA7-52EE-4B9F-95EA-395442F103BB}">
   <dimension ref="A1:BK235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:XFD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18732,7 +18916,9 @@
       <c r="D4" s="27" t="s">
         <v>723</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>1984</v>
+      </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -18773,7 +18959,9 @@
       <c r="C6" s="27" t="s">
         <v>724</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -18797,7 +18985,9 @@
       <c r="D7" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>1985</v>
+      </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -18826,8 +19016,12 @@
       <c r="F8" s="27" t="s">
         <v>718</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>1990</v>
+      </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -18844,8 +19038,12 @@
       <c r="C9" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>666</v>
+      </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -19146,7 +19344,9 @@
       <c r="C23" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>108</v>
+      </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -19268,7 +19468,9 @@
       <c r="D28" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="27" t="s">
+        <v>1989</v>
+      </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -19311,7 +19513,9 @@
       <c r="C30" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="27" t="s">
+        <v>115</v>
+      </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -19517,7 +19721,9 @@
       <c r="C40" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -19557,7 +19763,9 @@
       <c r="C42" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -19602,8 +19810,12 @@
       <c r="D44" s="27" t="s">
         <v>873</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="E44" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>1991</v>
+      </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -19625,7 +19837,9 @@
       <c r="D45" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="27" t="s">
+        <v>1992</v>
+      </c>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -19645,7 +19859,9 @@
       <c r="C46" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="D46" s="27"/>
+      <c r="D46" s="27" t="s">
+        <v>130</v>
+      </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
@@ -19708,7 +19924,9 @@
       <c r="C49" s="27" t="s">
         <v>670</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="27" t="s">
+        <v>133</v>
+      </c>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -19732,7 +19950,9 @@
       <c r="D50" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="E50" s="27"/>
+      <c r="E50" s="27" t="s">
+        <v>1993</v>
+      </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -19775,7 +19995,9 @@
       <c r="D52" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="E52" s="27"/>
+      <c r="E52" s="27" t="s">
+        <v>1986</v>
+      </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
@@ -19795,7 +20017,9 @@
       <c r="C53" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="D53" s="27"/>
+      <c r="D53" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -19835,7 +20059,9 @@
       <c r="C55" s="27" t="s">
         <v>715</v>
       </c>
-      <c r="D55" s="27"/>
+      <c r="D55" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
@@ -19880,7 +20106,9 @@
       <c r="D57" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="E57" s="27"/>
+      <c r="E57" s="27" t="s">
+        <v>1987</v>
+      </c>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -19915,6 +20143,39 @@
       <c r="A60" s="21" t="s">
         <v>595</v>
       </c>
+      <c r="B60" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>1999</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
@@ -19926,6 +20187,9 @@
       <c r="C61" s="26" t="s">
         <v>736</v>
       </c>
+      <c r="D61" s="26" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
@@ -19951,6 +20215,9 @@
       <c r="D63" s="26" t="s">
         <v>739</v>
       </c>
+      <c r="E63" s="26" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
@@ -19963,7 +20230,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>55</v>
       </c>
@@ -19974,7 +20241,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>61</v>
       </c>
@@ -19985,7 +20252,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>69</v>
       </c>
@@ -19999,7 +20266,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>76</v>
       </c>
@@ -20015,8 +20282,11 @@
       <c r="E68" s="26" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F68" s="26" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>81</v>
       </c>
@@ -20027,12 +20297,60 @@
         <v>751</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L71" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="O71" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P71" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q71" s="18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>600</v>
       </c>
@@ -20043,7 +20361,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>601</v>
       </c>
@@ -20054,7 +20372,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>602</v>
       </c>
@@ -20068,7 +20386,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>603</v>
       </c>
@@ -20081,8 +20399,11 @@
       <c r="D75" s="26" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E75" s="26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>604</v>
       </c>
@@ -20110,8 +20431,26 @@
       <c r="I76" s="26" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>2001</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>2002</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O76" s="26" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>605</v>
       </c>
@@ -20124,8 +20463,11 @@
       <c r="D77" s="26" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E77" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>606</v>
       </c>
@@ -20141,8 +20483,11 @@
       <c r="E78" s="26" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F78" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>607</v>
       </c>
@@ -20161,8 +20506,14 @@
       <c r="F79" s="26" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G79" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>608</v>
       </c>
@@ -20175,8 +20526,11 @@
       <c r="D80" s="26" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E80" s="26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>609</v>
       </c>
@@ -20190,10 +20544,13 @@
         <v>839</v>
       </c>
       <c r="E81" s="26" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F81" s="26" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>610</v>
       </c>
@@ -20213,7 +20570,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>611</v>
       </c>
@@ -20230,7 +20587,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>612</v>
       </c>
@@ -20244,7 +20601,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>613</v>
       </c>
@@ -20263,8 +20620,29 @@
       <c r="F85" s="26" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G85" s="26" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K85" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L85" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M85" s="26" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>614</v>
       </c>
@@ -20292,8 +20670,26 @@
       <c r="I86" s="26" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="26" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K86" s="26" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M86" s="26" t="s">
+        <v>2022</v>
+      </c>
+      <c r="N86" s="26" t="s">
+        <v>2023</v>
+      </c>
+      <c r="O86" s="26" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
         <v>615</v>
       </c>
@@ -20315,8 +20711,17 @@
       <c r="G87" s="26" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H87" s="26" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>2014</v>
+      </c>
+      <c r="J87" s="26" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
         <v>616</v>
       </c>
@@ -20332,8 +20737,11 @@
       <c r="E88" s="26" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F88" s="26" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>617</v>
       </c>
@@ -20352,8 +20760,11 @@
       <c r="F89" s="26" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G89" s="26" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
         <v>618</v>
       </c>
@@ -20375,8 +20786,17 @@
       <c r="G90" s="26" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H90" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J90" s="26" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
         <v>619</v>
       </c>
@@ -20392,8 +20812,14 @@
       <c r="E91" s="26" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F91" s="26" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
         <v>620</v>
       </c>
@@ -20418,8 +20844,17 @@
       <c r="H92" s="26" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="26" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K92" s="26" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
         <v>621</v>
       </c>
@@ -20432,8 +20867,11 @@
       <c r="D93" s="26" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="26" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>622</v>
       </c>
@@ -20447,7 +20885,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
         <v>623</v>
       </c>
@@ -20461,7 +20899,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
         <v>624</v>
       </c>
@@ -20474,8 +20912,11 @@
       <c r="D96" s="26" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E96" s="26" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
         <v>625</v>
       </c>
@@ -20486,7 +20927,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
         <v>626</v>
       </c>
@@ -20503,7 +20944,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
         <v>627</v>
       </c>
@@ -20514,7 +20955,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
         <v>628</v>
       </c>
@@ -20533,8 +20974,11 @@
       <c r="F100" s="26" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="26" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
         <v>629</v>
       </c>
@@ -20547,8 +20991,11 @@
       <c r="D101" s="26" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E101" s="26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
         <v>630</v>
       </c>
@@ -20564,8 +21011,14 @@
       <c r="E102" s="26" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F102" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="G102" s="26" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
         <v>631</v>
       </c>
@@ -20587,8 +21040,14 @@
       <c r="G103" s="26" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
         <v>632</v>
       </c>
@@ -20610,8 +21069,14 @@
       <c r="G104" s="26" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
         <v>633</v>
       </c>
@@ -20625,7 +21090,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
         <v>634</v>
       </c>
@@ -20641,8 +21106,14 @@
       <c r="E106" s="26" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F106" s="26" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>635</v>
       </c>
@@ -20655,13 +21126,70 @@
       <c r="D107" s="26" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="26" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="28" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="L109" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M109" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="N109" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O109" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="P109" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q109" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R109" s="18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="26" t="s">
         <v>636</v>
       </c>
@@ -20671,8 +21199,11 @@
       <c r="C110" s="26" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D110" s="26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="26">
         <v>0.223</v>
       </c>
@@ -20683,7 +21214,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="26">
         <v>0.24299999999999999</v>
       </c>
@@ -20724,6 +21255,24 @@
       <c r="F114" s="26" t="s">
         <v>853</v>
       </c>
+      <c r="G114" s="26" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I114" s="26" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J114" s="26" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K114" s="26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L114" s="26" t="s">
+        <v>2023</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="26" t="s">
@@ -20744,16 +21293,34 @@
       <c r="F115" s="26" t="s">
         <v>853</v>
       </c>
+      <c r="G115" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="H115" s="26" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I115" s="26" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J115" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="K115" s="26" t="s">
+        <v>2004</v>
+      </c>
+      <c r="L115" s="26" t="s">
+        <v>2005</v>
+      </c>
       <c r="M115" s="27"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="26">
+    <row r="116" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="37">
         <v>0.33800000000000002</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="37" t="s">
         <v>942</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="37" t="s">
         <v>879</v>
       </c>
     </row>
@@ -21090,8 +21657,18 @@
       <c r="A143" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
+      <c r="B143" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
@@ -21307,6 +21884,33 @@
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="26" t="s">
         <v>599</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="G159" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="I159" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="J159" s="20" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -23683,10 +24287,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDE6A95-C2F5-4A08-869B-2D219C1ED212}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23696,272 +24300,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>958</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>961</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>990</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
         <v>778</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>1042</v>
+        <v>966</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>1166</v>
       </c>
     </row>

--- a/assets/data/Hunt_v2.xlsx
+++ b/assets/data/Hunt_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam_cairns/Documents/Discord_Bots/DoubleLung/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Discord_Bots\DoubleLung\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5EE7A-4589-EE42-A286-BD84F0C49B22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BF0D9-B4CD-4BB1-8AC9-D57EBE84271F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="908" activeTab="6" xr2:uid="{49463AEE-7DC0-4014-BA40-AA309B07B9F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="908" activeTab="6" xr2:uid="{49463AEE-7DC0-4014-BA40-AA309B07B9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="2105">
   <si>
     <t>active</t>
   </si>
@@ -6364,6 +6364,12 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -6868,39 +6874,39 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="212.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="212.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="104.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="104.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="201.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="144.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="201.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="144.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="82" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="94.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="79.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="62.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="94.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="79.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="62.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="136" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="212.33203125" style="1"/>
+    <col min="27" max="27" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="212.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1808</v>
       </c>
@@ -11379,283 +11385,283 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>1166</v>
       </c>
@@ -11673,34 +11679,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
@@ -11708,7 +11714,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>2</v>
       </c>
@@ -11716,7 +11722,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>974</v>
       </c>
@@ -11724,7 +11730,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>981</v>
       </c>
@@ -11732,7 +11738,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
@@ -11740,7 +11746,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>785</v>
       </c>
@@ -11748,107 +11754,107 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>986</v>
       </c>
@@ -11866,274 +11872,274 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>1003</v>
       </c>
@@ -12151,9 +12157,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1983</v>
       </c>
@@ -12305,7 +12311,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>880</v>
       </c>
@@ -12316,7 +12322,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>939</v>
       </c>
@@ -12327,7 +12333,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>940</v>
       </c>
@@ -12338,7 +12344,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>941</v>
       </c>
@@ -12349,7 +12355,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>849</v>
       </c>
@@ -12366,7 +12372,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>726</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>942</v>
       </c>
@@ -12394,7 +12400,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>943</v>
       </c>
@@ -12405,7 +12411,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>887</v>
       </c>
@@ -12416,7 +12422,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>945</v>
       </c>
@@ -12427,7 +12433,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>884</v>
       </c>
@@ -12440,7 +12446,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>947</v>
       </c>
@@ -12455,7 +12461,7 @@
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>887</v>
       </c>
@@ -12470,7 +12476,7 @@
       </c>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>949</v>
       </c>
@@ -12485,7 +12491,7 @@
       </c>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>950</v>
       </c>
@@ -12496,7 +12502,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>936</v>
       </c>
@@ -12507,7 +12513,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>951</v>
       </c>
@@ -12518,7 +12524,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>953</v>
       </c>
@@ -12529,7 +12535,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>952</v>
       </c>
@@ -12540,7 +12546,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>950</v>
       </c>
@@ -12551,7 +12557,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>954</v>
       </c>
@@ -12562,7 +12568,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>955</v>
       </c>
@@ -12573,7 +12579,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>929</v>
       </c>
@@ -12586,7 +12592,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>903</v>
       </c>
@@ -12599,7 +12605,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>930</v>
       </c>
@@ -12612,7 +12618,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>904</v>
       </c>
@@ -12625,7 +12631,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>883</v>
       </c>
@@ -12638,7 +12644,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>931</v>
       </c>
@@ -12651,7 +12657,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>932</v>
       </c>
@@ -12664,7 +12670,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>933</v>
       </c>
@@ -12677,7 +12683,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>934</v>
       </c>
@@ -12690,7 +12696,7 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>935</v>
       </c>
@@ -12703,7 +12709,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>877</v>
       </c>
@@ -12717,7 +12723,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>465</v>
       </c>
@@ -12731,7 +12737,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>725</v>
       </c>
@@ -12747,7 +12753,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>725</v>
       </c>
@@ -12763,7 +12769,7 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>726</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>543</v>
       </c>
@@ -12805,7 +12811,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>869</v>
       </c>
@@ -12823,7 +12829,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>837</v>
       </c>
@@ -12843,7 +12849,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>346</v>
       </c>
@@ -12859,7 +12865,7 @@
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>473</v>
       </c>
@@ -12877,7 +12883,7 @@
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>846</v>
       </c>
@@ -12897,7 +12903,7 @@
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>883</v>
       </c>
@@ -12915,7 +12921,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>476</v>
       </c>
@@ -12931,7 +12937,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>477</v>
       </c>
@@ -12951,7 +12957,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>478</v>
       </c>
@@ -12977,7 +12983,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>479</v>
       </c>
@@ -12999,7 +13005,7 @@
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>480</v>
       </c>
@@ -13017,7 +13023,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>872</v>
       </c>
@@ -13037,7 +13043,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>917</v>
       </c>
@@ -13059,7 +13065,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>483</v>
       </c>
@@ -13077,7 +13083,7 @@
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>484</v>
       </c>
@@ -13101,7 +13107,7 @@
       </c>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>485</v>
       </c>
@@ -13117,7 +13123,7 @@
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>486</v>
       </c>
@@ -13133,7 +13139,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>487</v>
       </c>
@@ -13149,7 +13155,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>488</v>
       </c>
@@ -13165,7 +13171,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>489</v>
       </c>
@@ -13179,7 +13185,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>905</v>
       </c>
@@ -13197,7 +13203,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>491</v>
       </c>
@@ -13211,7 +13217,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>492</v>
       </c>
@@ -13231,7 +13237,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>493</v>
       </c>
@@ -13247,7 +13253,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>799</v>
       </c>
@@ -13265,7 +13271,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>919</v>
       </c>
@@ -13287,7 +13293,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>665</v>
       </c>
@@ -13309,7 +13315,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>890</v>
       </c>
@@ -13325,7 +13331,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>498</v>
       </c>
@@ -13343,7 +13349,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>499</v>
       </c>
@@ -13359,7 +13365,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>651</v>
       </c>
@@ -13370,7 +13376,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>702</v>
       </c>
@@ -13379,7 +13385,7 @@
       </c>
       <c r="C71" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>704</v>
       </c>
@@ -13388,14 +13394,14 @@
       </c>
       <c r="C72" s="18"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>698</v>
       </c>
@@ -13404,7 +13410,7 @@
       </c>
       <c r="C74" s="18"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>717</v>
       </c>
@@ -13415,7 +13421,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>718</v>
       </c>
@@ -13424,7 +13430,7 @@
       </c>
       <c r="C76" s="18"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>706</v>
       </c>
@@ -13433,7 +13439,7 @@
       </c>
       <c r="C77" s="18"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>694</v>
       </c>
@@ -13442,7 +13448,7 @@
       </c>
       <c r="C78" s="18"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>702</v>
       </c>
@@ -13454,7 +13460,7 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>720</v>
       </c>
@@ -13468,7 +13474,7 @@
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>824</v>
       </c>
@@ -13482,7 +13488,7 @@
       <c r="E81" s="20"/>
       <c r="F81" s="18"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>827</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>821</v>
       </c>
@@ -13516,7 +13522,7 @@
       <c r="E83" s="20"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>718</v>
       </c>
@@ -13528,7 +13534,7 @@
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>653</v>
       </c>
@@ -13540,7 +13546,7 @@
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>653</v>
       </c>
@@ -13552,7 +13558,7 @@
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>820</v>
       </c>
@@ -13564,7 +13570,7 @@
       <c r="E87" s="18"/>
       <c r="F87" s="20"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>724</v>
       </c>
@@ -13578,7 +13584,7 @@
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>824</v>
       </c>
@@ -13592,7 +13598,7 @@
       <c r="E89" s="20"/>
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>568</v>
       </c>
@@ -13602,7 +13608,7 @@
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>698</v>
       </c>
@@ -13614,7 +13620,7 @@
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>119</v>
       </c>
@@ -13624,7 +13630,7 @@
       <c r="E92" s="20"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>1029</v>
       </c>
@@ -13674,7 +13680,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>1031</v>
       </c>
@@ -13724,7 +13730,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>1044</v>
       </c>
@@ -13738,7 +13744,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>542</v>
       </c>
@@ -13780,13 +13786,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="35"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1168</v>
       </c>
@@ -13797,150 +13803,150 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="34"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="34"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="34"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="34"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="34"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="34"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="34"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="34"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
     </row>
   </sheetData>
@@ -13957,9 +13963,9 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1029</v>
       </c>
@@ -14009,7 +14015,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>877</v>
       </c>
@@ -14023,7 +14029,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>465</v>
       </c>
@@ -14037,7 +14043,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>725</v>
       </c>
@@ -14053,7 +14059,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>725</v>
       </c>
@@ -14069,7 +14075,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>726</v>
       </c>
@@ -14095,7 +14101,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>543</v>
       </c>
@@ -14111,7 +14117,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>869</v>
       </c>
@@ -14129,7 +14135,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>837</v>
       </c>
@@ -14149,7 +14155,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>346</v>
       </c>
@@ -14165,7 +14171,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>473</v>
       </c>
@@ -14183,7 +14189,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>846</v>
       </c>
@@ -14203,7 +14209,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>883</v>
       </c>
@@ -14221,7 +14227,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>476</v>
       </c>
@@ -14237,7 +14243,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>477</v>
       </c>
@@ -14257,7 +14263,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>478</v>
       </c>
@@ -14283,7 +14289,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>479</v>
       </c>
@@ -14305,7 +14311,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>480</v>
       </c>
@@ -14323,7 +14329,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>872</v>
       </c>
@@ -14343,7 +14349,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>917</v>
       </c>
@@ -14365,7 +14371,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>483</v>
       </c>
@@ -14383,7 +14389,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>484</v>
       </c>
@@ -14407,7 +14413,7 @@
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>485</v>
       </c>
@@ -14423,7 +14429,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>486</v>
       </c>
@@ -14439,7 +14445,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>487</v>
       </c>
@@ -14455,7 +14461,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>488</v>
       </c>
@@ -14471,7 +14477,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>489</v>
       </c>
@@ -14485,7 +14491,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>905</v>
       </c>
@@ -14503,7 +14509,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>491</v>
       </c>
@@ -14517,7 +14523,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>492</v>
       </c>
@@ -14537,7 +14543,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>493</v>
       </c>
@@ -14553,7 +14559,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>799</v>
       </c>
@@ -14571,7 +14577,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>919</v>
       </c>
@@ -14593,7 +14599,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>665</v>
       </c>
@@ -14615,7 +14621,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>890</v>
       </c>
@@ -14631,7 +14637,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>498</v>
       </c>
@@ -14649,7 +14655,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>499</v>
       </c>
@@ -14678,9 +14684,9 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1031</v>
       </c>
@@ -14733,7 +14739,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>880</v>
       </c>
@@ -14744,7 +14750,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>939</v>
       </c>
@@ -14755,7 +14761,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>940</v>
       </c>
@@ -14766,7 +14772,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>941</v>
       </c>
@@ -14777,7 +14783,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>849</v>
       </c>
@@ -14794,7 +14800,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>726</v>
       </c>
@@ -14811,7 +14817,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>942</v>
       </c>
@@ -14822,7 +14828,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>943</v>
       </c>
@@ -14833,7 +14839,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>887</v>
       </c>
@@ -14844,7 +14850,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>945</v>
       </c>
@@ -14855,7 +14861,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>884</v>
       </c>
@@ -14868,7 +14874,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>947</v>
       </c>
@@ -14883,7 +14889,7 @@
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>887</v>
       </c>
@@ -14898,7 +14904,7 @@
       </c>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>949</v>
       </c>
@@ -14913,7 +14919,7 @@
       </c>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>950</v>
       </c>
@@ -14924,7 +14930,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>936</v>
       </c>
@@ -14935,7 +14941,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>951</v>
       </c>
@@ -14946,7 +14952,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>953</v>
       </c>
@@ -14957,7 +14963,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>952</v>
       </c>
@@ -14968,7 +14974,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>950</v>
       </c>
@@ -14979,7 +14985,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>954</v>
       </c>
@@ -14990,7 +14996,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>955</v>
       </c>
@@ -15001,7 +15007,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>929</v>
       </c>
@@ -15014,7 +15020,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>903</v>
       </c>
@@ -15027,7 +15033,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>930</v>
       </c>
@@ -15040,7 +15046,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>904</v>
       </c>
@@ -15053,7 +15059,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>883</v>
       </c>
@@ -15066,7 +15072,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>931</v>
       </c>
@@ -15079,7 +15085,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>932</v>
       </c>
@@ -15092,7 +15098,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>933</v>
       </c>
@@ -15105,7 +15111,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>934</v>
       </c>
@@ -15118,7 +15124,7 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>935</v>
       </c>
@@ -15144,9 +15150,9 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>542</v>
       </c>
@@ -15175,7 +15181,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>651</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>702</v>
       </c>
@@ -15195,7 +15201,7 @@
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>704</v>
       </c>
@@ -15204,14 +15210,14 @@
       </c>
       <c r="C4" s="18"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>698</v>
       </c>
@@ -15220,7 +15226,7 @@
       </c>
       <c r="C6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>717</v>
       </c>
@@ -15231,7 +15237,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>718</v>
       </c>
@@ -15240,7 +15246,7 @@
       </c>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>706</v>
       </c>
@@ -15249,7 +15255,7 @@
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>694</v>
       </c>
@@ -15271,9 +15277,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1044</v>
       </c>
@@ -15287,7 +15293,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>702</v>
       </c>
@@ -15299,7 +15305,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>720</v>
       </c>
@@ -15313,7 +15319,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>824</v>
       </c>
@@ -15327,7 +15333,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>827</v>
       </c>
@@ -15347,7 +15353,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>821</v>
       </c>
@@ -15361,7 +15367,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>718</v>
       </c>
@@ -15373,7 +15379,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>653</v>
       </c>
@@ -15385,7 +15391,7 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>653</v>
       </c>
@@ -15397,7 +15403,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>820</v>
       </c>
@@ -15409,7 +15415,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>724</v>
       </c>
@@ -15423,7 +15429,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>824</v>
       </c>
@@ -15437,7 +15443,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>568</v>
       </c>
@@ -15447,7 +15453,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>698</v>
       </c>
@@ -15459,7 +15465,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>119</v>
       </c>
@@ -15482,15 +15488,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>573</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>578</v>
       </c>
@@ -15512,7 +15518,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>579</v>
       </c>
@@ -15523,7 +15529,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>580</v>
       </c>
@@ -15534,7 +15540,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>585</v>
       </c>
@@ -15545,7 +15551,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>581</v>
       </c>
@@ -15556,7 +15562,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>582</v>
       </c>
@@ -15567,7 +15573,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>586</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>583</v>
       </c>
@@ -15589,7 +15595,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>584</v>
       </c>
@@ -15600,178 +15606,178 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
     </row>
-    <row r="59" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
     </row>
   </sheetData>
@@ -15787,21 +15793,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="35.83203125" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="35.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>537</v>
       </c>
@@ -15833,7 +15839,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>464</v>
       </c>
@@ -15865,7 +15871,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>465</v>
       </c>
@@ -15897,7 +15903,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>466</v>
       </c>
@@ -15929,7 +15935,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>467</v>
       </c>
@@ -15961,7 +15967,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>468</v>
       </c>
@@ -15993,7 +15999,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>469</v>
       </c>
@@ -16025,7 +16031,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>470</v>
       </c>
@@ -16057,7 +16063,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>471</v>
       </c>
@@ -16089,7 +16095,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>472</v>
       </c>
@@ -16121,7 +16127,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>473</v>
       </c>
@@ -16153,7 +16159,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>474</v>
       </c>
@@ -16185,7 +16191,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>475</v>
       </c>
@@ -16217,7 +16223,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>476</v>
       </c>
@@ -16249,7 +16255,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>477</v>
       </c>
@@ -16281,7 +16287,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>478</v>
       </c>
@@ -16313,7 +16319,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>479</v>
       </c>
@@ -16345,7 +16351,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>480</v>
       </c>
@@ -16377,7 +16383,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>481</v>
       </c>
@@ -16409,7 +16415,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>482</v>
       </c>
@@ -16441,7 +16447,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>483</v>
       </c>
@@ -16473,7 +16479,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>484</v>
       </c>
@@ -16505,7 +16511,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>485</v>
       </c>
@@ -16537,7 +16543,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>486</v>
       </c>
@@ -16569,7 +16575,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>487</v>
       </c>
@@ -16601,7 +16607,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>488</v>
       </c>
@@ -16633,7 +16639,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>489</v>
       </c>
@@ -16665,7 +16671,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>490</v>
       </c>
@@ -16697,7 +16703,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>491</v>
       </c>
@@ -16729,7 +16735,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>492</v>
       </c>
@@ -16761,7 +16767,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>493</v>
       </c>
@@ -16793,7 +16799,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>494</v>
       </c>
@@ -16825,7 +16831,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>495</v>
       </c>
@@ -16857,7 +16863,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>496</v>
       </c>
@@ -16889,7 +16895,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>497</v>
       </c>
@@ -16921,7 +16927,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>498</v>
       </c>
@@ -16953,7 +16959,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>499</v>
       </c>
@@ -16998,27 +17004,27 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="71.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="8"/>
+    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>538</v>
       </c>
@@ -17065,7 +17071,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>356</v>
       </c>
@@ -17104,7 +17110,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>223</v>
       </c>
@@ -17151,7 +17157,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>243</v>
       </c>
@@ -17198,7 +17204,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>270</v>
       </c>
@@ -17245,7 +17251,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>375</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>378</v>
       </c>
@@ -17339,7 +17345,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>338</v>
       </c>
@@ -17386,7 +17392,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>470</v>
       </c>
@@ -17433,7 +17439,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>383</v>
       </c>
@@ -17480,7 +17486,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>303</v>
       </c>
@@ -17527,7 +17533,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>386</v>
       </c>
@@ -17574,7 +17580,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9.3000000000000007</v>
       </c>
@@ -17621,7 +17627,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>390</v>
       </c>
@@ -17668,7 +17674,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>7.62</v>
       </c>
@@ -17707,7 +17713,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>394</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>300</v>
       </c>
@@ -17801,7 +17807,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>399</v>
       </c>
@@ -17848,7 +17854,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>357</v>
       </c>
@@ -17895,7 +17901,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>44</v>
       </c>
@@ -17942,7 +17948,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>404</v>
       </c>
@@ -17981,7 +17987,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>454</v>
       </c>
@@ -18028,7 +18034,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>410</v>
       </c>
@@ -18067,7 +18073,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>408</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>410</v>
       </c>
@@ -18145,7 +18151,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>412</v>
       </c>
@@ -18184,7 +18190,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>414</v>
       </c>
@@ -18223,7 +18229,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>418</v>
       </c>
@@ -18262,7 +18268,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>576</v>
       </c>
@@ -18301,7 +18307,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>421</v>
       </c>
@@ -18340,7 +18346,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>423</v>
       </c>
@@ -18379,7 +18385,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>425</v>
       </c>
@@ -18418,7 +18424,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="14.1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>577</v>
       </c>
@@ -18467,26 +18473,26 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -18847,18 +18853,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.1640625" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>541</v>
       </c>
@@ -18878,7 +18884,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>92</v>
       </c>
@@ -18898,7 +18904,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>130</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>132</v>
       </c>
@@ -18938,7 +18944,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>119</v>
       </c>
@@ -18958,7 +18964,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>126</v>
       </c>
@@ -18978,7 +18984,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>539</v>
       </c>
@@ -18998,7 +19004,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>143</v>
       </c>
@@ -19018,7 +19024,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>540</v>
       </c>
@@ -19038,7 +19044,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>122</v>
       </c>
@@ -19068,16 +19074,16 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="39"/>
+    <col min="1" max="1" width="12.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>2100</v>
       </c>
@@ -19088,10 +19094,16 @@
         <v>2102</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+        <v>2103</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1808</v>
       </c>
@@ -19111,7 +19123,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>335</v>
       </c>
@@ -19131,7 +19143,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1196</v>
       </c>
@@ -19151,7 +19163,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>337</v>
       </c>
@@ -19171,7 +19183,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>338</v>
       </c>
@@ -19191,7 +19203,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>144</v>
       </c>
@@ -19211,7 +19223,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>145</v>
       </c>
@@ -19231,7 +19243,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>146</v>
       </c>
@@ -19251,7 +19263,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>147</v>
       </c>
@@ -19271,7 +19283,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>148</v>
       </c>
@@ -19291,7 +19303,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -19311,7 +19323,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>3</v>
       </c>
@@ -19331,7 +19343,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -19351,7 +19363,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>5</v>
       </c>
@@ -19371,7 +19383,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>339</v>
       </c>
@@ -19391,7 +19403,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>340</v>
       </c>
@@ -19411,7 +19423,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>341</v>
       </c>
@@ -19431,7 +19443,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1190</v>
       </c>
@@ -19451,7 +19463,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1191</v>
       </c>
@@ -19471,7 +19483,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1195</v>
       </c>
@@ -19491,7 +19503,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1194</v>
       </c>
@@ -19511,7 +19523,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1193</v>
       </c>
@@ -19531,7 +19543,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1192</v>
       </c>
@@ -19551,7 +19563,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>342</v>
       </c>
@@ -19571,7 +19583,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>542</v>
       </c>
@@ -19591,7 +19603,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>589</v>
       </c>
@@ -19611,7 +19623,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>588</v>
       </c>
@@ -19631,7 +19643,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>573</v>
       </c>
@@ -19648,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>336</v>
       </c>
@@ -19665,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>587</v>
       </c>
@@ -19682,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>537</v>
       </c>
@@ -19699,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>529</v>
       </c>
@@ -19716,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>530</v>
       </c>
@@ -19733,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>531</v>
       </c>
@@ -19750,7 +19762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>532</v>
       </c>
@@ -19767,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>533</v>
       </c>
@@ -19784,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>534</v>
       </c>
@@ -19801,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>535</v>
       </c>
@@ -19818,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>536</v>
       </c>
@@ -19835,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>593</v>
       </c>
@@ -19852,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>538</v>
       </c>
@@ -19869,7 +19881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>345</v>
       </c>
@@ -19886,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>1841</v>
       </c>
@@ -19903,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>347</v>
       </c>
@@ -19920,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>1840</v>
       </c>
@@ -19937,7 +19949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>1842</v>
       </c>
@@ -19954,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>349</v>
       </c>
@@ -19981,7 +19993,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>1843</v>
       </c>
@@ -20003,7 +20015,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>351</v>
       </c>
@@ -20020,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>1844</v>
       </c>
@@ -20045,7 +20057,7 @@
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>353</v>
       </c>
@@ -20070,7 +20082,7 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>1845</v>
       </c>
@@ -20087,7 +20099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>355</v>
       </c>
@@ -20104,7 +20116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>588</v>
       </c>
@@ -20121,7 +20133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>592</v>
       </c>
@@ -20138,7 +20150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>572</v>
       </c>
@@ -20155,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>342</v>
       </c>
@@ -20173,7 +20185,7 @@
       </c>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>547</v>
       </c>
@@ -20190,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>543</v>
       </c>
@@ -20207,7 +20219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>544</v>
       </c>
@@ -20224,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>545</v>
       </c>
@@ -20241,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>591</v>
       </c>
@@ -20258,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>541</v>
       </c>
@@ -20275,7 +20287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>542</v>
       </c>
@@ -20292,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>543</v>
       </c>
@@ -20309,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>544</v>
       </c>
@@ -20326,7 +20338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>545</v>
       </c>
@@ -20343,7 +20355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>546</v>
       </c>
@@ -20373,49 +20385,49 @@
       <selection activeCell="A116" sqref="A116:XFD116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" style="26" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="27.5" style="26"/>
+    <col min="33" max="33" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="27.42578125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>594</v>
       </c>
@@ -20489,7 +20501,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>49</v>
       </c>
@@ -20510,7 +20522,7 @@
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>63</v>
       </c>
@@ -20531,7 +20543,7 @@
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>73</v>
       </c>
@@ -20556,7 +20568,7 @@
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>27</v>
       </c>
@@ -20577,7 +20589,7 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>48</v>
       </c>
@@ -20600,7 +20612,7 @@
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
@@ -20625,7 +20637,7 @@
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>43</v>
       </c>
@@ -20656,7 +20668,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
@@ -20681,7 +20693,7 @@
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
@@ -20706,7 +20718,7 @@
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>46</v>
       </c>
@@ -20727,7 +20739,7 @@
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>58</v>
       </c>
@@ -20746,7 +20758,7 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>77</v>
       </c>
@@ -20765,7 +20777,7 @@
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
     </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>47</v>
       </c>
@@ -20786,7 +20798,7 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
@@ -20805,7 +20817,7 @@
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>35</v>
       </c>
@@ -20828,7 +20840,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
@@ -20851,7 +20863,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>62</v>
       </c>
@@ -20874,7 +20886,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -20897,7 +20909,7 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>13</v>
       </c>
@@ -20918,7 +20930,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>78</v>
       </c>
@@ -20939,7 +20951,7 @@
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>79</v>
       </c>
@@ -20962,7 +20974,7 @@
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>44</v>
       </c>
@@ -20985,7 +20997,7 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>64</v>
       </c>
@@ -21008,7 +21020,7 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>57</v>
       </c>
@@ -21033,7 +21045,7 @@
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>59</v>
       </c>
@@ -21056,7 +21068,7 @@
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>56</v>
       </c>
@@ -21083,7 +21095,7 @@
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>67</v>
       </c>
@@ -21108,7 +21120,7 @@
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>68</v>
       </c>
@@ -21131,7 +21143,7 @@
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
@@ -21154,7 +21166,7 @@
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
@@ -21175,7 +21187,7 @@
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>45</v>
       </c>
@@ -21196,7 +21208,7 @@
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -21215,7 +21227,7 @@
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>29</v>
       </c>
@@ -21234,7 +21246,7 @@
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>72</v>
       </c>
@@ -21255,7 +21267,7 @@
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>74</v>
       </c>
@@ -21276,7 +21288,7 @@
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>51</v>
       </c>
@@ -21297,7 +21309,7 @@
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>34</v>
       </c>
@@ -21318,7 +21330,7 @@
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>60</v>
       </c>
@@ -21339,7 +21351,7 @@
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>71</v>
       </c>
@@ -21362,7 +21374,7 @@
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>50</v>
       </c>
@@ -21381,7 +21393,7 @@
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>14</v>
       </c>
@@ -21404,7 +21416,7 @@
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>10</v>
       </c>
@@ -21425,7 +21437,7 @@
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>36</v>
       </c>
@@ -21452,7 +21464,7 @@
       <c r="L44" s="27"/>
       <c r="M44" s="27"/>
     </row>
-    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>75</v>
       </c>
@@ -21477,7 +21489,7 @@
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>11</v>
       </c>
@@ -21500,7 +21512,7 @@
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>66</v>
       </c>
@@ -21521,7 +21533,7 @@
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>28</v>
       </c>
@@ -21542,7 +21554,7 @@
       <c r="L48" s="27"/>
       <c r="M48" s="27"/>
     </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>38</v>
       </c>
@@ -21565,7 +21577,7 @@
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>39</v>
       </c>
@@ -21589,7 +21601,7 @@
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>80</v>
       </c>
@@ -21610,7 +21622,7 @@
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>65</v>
       </c>
@@ -21635,7 +21647,7 @@
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>40</v>
       </c>
@@ -21658,7 +21670,7 @@
       <c r="L53" s="27"/>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>70</v>
       </c>
@@ -21677,7 +21689,7 @@
       <c r="L54" s="27"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>42</v>
       </c>
@@ -21700,7 +21712,7 @@
       <c r="L55" s="27"/>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>52</v>
       </c>
@@ -21721,7 +21733,7 @@
       <c r="L56" s="27"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>26</v>
       </c>
@@ -21746,7 +21758,7 @@
       <c r="L57" s="27"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>12</v>
       </c>
@@ -21767,7 +21779,7 @@
       <c r="L58" s="27"/>
       <c r="M58" s="27"/>
     </row>
-    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>595</v>
       </c>
@@ -21805,7 +21817,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>21</v>
       </c>
@@ -21819,7 +21831,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>33</v>
       </c>
@@ -21830,7 +21842,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>53</v>
       </c>
@@ -21847,7 +21859,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>54</v>
       </c>
@@ -21858,7 +21870,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>55</v>
       </c>
@@ -21869,7 +21881,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>61</v>
       </c>
@@ -21880,7 +21892,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>69</v>
       </c>
@@ -21894,7 +21906,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>76</v>
       </c>
@@ -21914,7 +21926,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>81</v>
       </c>
@@ -21925,7 +21937,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>596</v>
       </c>
@@ -21978,7 +21990,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>600</v>
       </c>
@@ -21989,7 +22001,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>601</v>
       </c>
@@ -22000,7 +22012,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>602</v>
       </c>
@@ -22014,7 +22026,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>603</v>
       </c>
@@ -22031,7 +22043,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>604</v>
       </c>
@@ -22078,7 +22090,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>605</v>
       </c>
@@ -22095,7 +22107,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>606</v>
       </c>
@@ -22115,7 +22127,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>607</v>
       </c>
@@ -22141,7 +22153,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>608</v>
       </c>
@@ -22158,7 +22170,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
         <v>609</v>
       </c>
@@ -22178,7 +22190,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
         <v>610</v>
       </c>
@@ -22198,7 +22210,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>611</v>
       </c>
@@ -22215,7 +22227,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>612</v>
       </c>
@@ -22229,7 +22241,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>613</v>
       </c>
@@ -22270,7 +22282,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>614</v>
       </c>
@@ -22317,7 +22329,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
         <v>615</v>
       </c>
@@ -22349,7 +22361,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
         <v>616</v>
       </c>
@@ -22369,7 +22381,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>617</v>
       </c>
@@ -22392,7 +22404,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
         <v>618</v>
       </c>
@@ -22424,7 +22436,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
         <v>619</v>
       </c>
@@ -22447,7 +22459,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
         <v>620</v>
       </c>
@@ -22482,7 +22494,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
         <v>621</v>
       </c>
@@ -22499,7 +22511,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>622</v>
       </c>
@@ -22513,7 +22525,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
         <v>623</v>
       </c>
@@ -22527,7 +22539,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
         <v>624</v>
       </c>
@@ -22544,7 +22556,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
         <v>625</v>
       </c>
@@ -22555,7 +22567,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
         <v>626</v>
       </c>
@@ -22572,7 +22584,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
         <v>627</v>
       </c>
@@ -22583,7 +22595,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
         <v>628</v>
       </c>
@@ -22606,7 +22618,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
         <v>629</v>
       </c>
@@ -22623,7 +22635,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
         <v>630</v>
       </c>
@@ -22646,7 +22658,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
         <v>631</v>
       </c>
@@ -22675,7 +22687,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
         <v>632</v>
       </c>
@@ -22704,7 +22716,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
         <v>633</v>
       </c>
@@ -22718,7 +22730,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
         <v>634</v>
       </c>
@@ -22741,7 +22753,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>635</v>
       </c>
@@ -22761,7 +22773,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="28" t="s">
         <v>597</v>
       </c>
@@ -22817,7 +22829,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="26" t="s">
         <v>636</v>
       </c>
@@ -22831,7 +22843,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="26">
         <v>0.223</v>
       </c>
@@ -22842,7 +22854,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="26">
         <v>0.24299999999999999</v>
       </c>
@@ -22853,7 +22865,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="26">
         <v>0.27</v>
       </c>
@@ -22864,7 +22876,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="26" t="s">
         <v>375</v>
       </c>
@@ -22902,7 +22914,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="26" t="s">
         <v>378</v>
       </c>
@@ -22941,7 +22953,7 @@
       </c>
       <c r="M115" s="27"/>
     </row>
-    <row r="116" spans="1:13" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="37">
         <v>0.33800000000000002</v>
       </c>
@@ -22952,7 +22964,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="26">
         <v>0.47</v>
       </c>
@@ -22963,7 +22975,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="26" t="s">
         <v>383</v>
       </c>
@@ -22974,7 +22986,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="26">
         <v>0.30299999999999999</v>
       </c>
@@ -22985,7 +22997,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="26" t="s">
         <v>386</v>
       </c>
@@ -22999,7 +23011,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
         <v>637</v>
       </c>
@@ -23016,7 +23028,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
         <v>638</v>
       </c>
@@ -23033,7 +23045,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="26" t="s">
         <v>639</v>
       </c>
@@ -23051,7 +23063,7 @@
       </c>
       <c r="M123" s="27"/>
     </row>
-    <row r="124" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="26">
         <v>0.45</v>
       </c>
@@ -23062,7 +23074,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="26">
         <v>0.3</v>
       </c>
@@ -23073,7 +23085,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="26">
         <v>0.5</v>
       </c>
@@ -23085,7 +23097,7 @@
       </c>
       <c r="M126" s="27"/>
     </row>
-    <row r="127" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="26">
         <v>0.35699999999999998</v>
       </c>
@@ -23097,7 +23109,7 @@
       </c>
       <c r="M127" s="27"/>
     </row>
-    <row r="128" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="26">
         <v>0.44</v>
       </c>
@@ -23108,7 +23120,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="26">
         <v>0.45</v>
       </c>
@@ -23119,7 +23131,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="26">
         <v>0.45400000000000001</v>
       </c>
@@ -23130,7 +23142,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="26">
         <v>0.41</v>
       </c>
@@ -23141,7 +23153,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="26" t="s">
         <v>640</v>
       </c>
@@ -23155,7 +23167,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
         <v>641</v>
       </c>
@@ -23169,7 +23181,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
         <v>642</v>
       </c>
@@ -23183,7 +23195,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
         <v>643</v>
       </c>
@@ -23197,7 +23209,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="26" t="s">
         <v>644</v>
       </c>
@@ -23211,7 +23223,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="26" t="s">
         <v>645</v>
       </c>
@@ -23225,7 +23237,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="26" t="s">
         <v>646</v>
       </c>
@@ -23239,7 +23251,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="26" t="s">
         <v>647</v>
       </c>
@@ -23253,7 +23265,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="26" t="s">
         <v>648</v>
       </c>
@@ -23267,7 +23279,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="26" t="s">
         <v>649</v>
       </c>
@@ -23281,7 +23293,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="26" t="s">
         <v>598</v>
       </c>
@@ -23298,7 +23310,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="26" t="s">
         <v>17</v>
       </c>
@@ -23311,7 +23323,7 @@
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
     </row>
-    <row r="145" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="26" t="s">
         <v>82</v>
       </c>
@@ -23328,7 +23340,7 @@
       <c r="F145" s="27"/>
       <c r="G145" s="27"/>
     </row>
-    <row r="146" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="26" t="s">
         <v>85</v>
       </c>
@@ -23344,7 +23356,7 @@
       <c r="E146" s="27"/>
       <c r="F146" s="27"/>
     </row>
-    <row r="147" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="26" t="s">
         <v>16</v>
       </c>
@@ -23373,7 +23385,7 @@
       <c r="L147" s="27"/>
       <c r="M147" s="27"/>
     </row>
-    <row r="148" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="26" t="s">
         <v>30</v>
       </c>
@@ -23389,7 +23401,7 @@
       <c r="E148" s="27"/>
       <c r="F148" s="27"/>
     </row>
-    <row r="149" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="26" t="s">
         <v>18</v>
       </c>
@@ -23808,7 +23820,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="173" spans="1:39" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
         <v>338</v>
       </c>
@@ -23865,7 +23877,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="21" t="s">
         <v>2</v>
       </c>
@@ -23875,7 +23887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
         <v>4</v>
       </c>
@@ -23909,7 +23921,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="s">
         <v>339</v>
       </c>
@@ -23944,12 +23956,12 @@
         <v>982</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="19" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
         <v>341</v>
       </c>
@@ -25222,7 +25234,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="32" t="s">
         <v>544</v>
       </c>
@@ -25246,14 +25258,14 @@
       <selection activeCell="F1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="6.5" style="8"/>
+    <col min="1" max="1" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="6.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
@@ -25270,7 +25282,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>63</v>
       </c>
@@ -25287,7 +25299,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>73</v>
       </c>
@@ -25304,7 +25316,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>27</v>
       </c>
@@ -25318,7 +25330,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
@@ -25335,7 +25347,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
@@ -25346,7 +25358,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -25357,7 +25369,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -25368,7 +25380,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
@@ -25379,7 +25391,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
@@ -25390,7 +25402,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>58</v>
       </c>
@@ -25401,7 +25413,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>77</v>
       </c>
@@ -25412,7 +25424,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>47</v>
       </c>
@@ -25423,7 +25435,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -25434,7 +25446,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
@@ -25445,7 +25457,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
@@ -25456,7 +25468,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>62</v>
       </c>
@@ -25467,7 +25479,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -25478,7 +25490,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -25489,7 +25501,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>78</v>
       </c>
@@ -25500,7 +25512,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>79</v>
       </c>
@@ -25511,7 +25523,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
@@ -25522,7 +25534,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>64</v>
       </c>
@@ -25533,7 +25545,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>57</v>
       </c>
@@ -25544,7 +25556,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>59</v>
       </c>
@@ -25555,7 +25567,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>56</v>
       </c>
@@ -25566,7 +25578,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>67</v>
       </c>
@@ -25577,7 +25589,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>68</v>
       </c>
@@ -25588,7 +25600,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
@@ -25599,7 +25611,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
@@ -25610,7 +25622,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>45</v>
       </c>
@@ -25621,7 +25633,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>22</v>
       </c>
@@ -25632,7 +25644,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>29</v>
       </c>
@@ -25643,7 +25655,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>72</v>
       </c>
@@ -25654,7 +25666,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>74</v>
       </c>
@@ -25665,7 +25677,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>51</v>
       </c>
@@ -25676,7 +25688,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>34</v>
       </c>
@@ -25687,7 +25699,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
@@ -25698,7 +25710,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>71</v>
       </c>
@@ -25709,7 +25721,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
@@ -25720,7 +25732,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>14</v>
       </c>
@@ -25731,7 +25743,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>10</v>
       </c>
@@ -25742,7 +25754,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>36</v>
       </c>
@@ -25753,7 +25765,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>75</v>
       </c>
@@ -25764,7 +25776,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>11</v>
       </c>
@@ -25775,7 +25787,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>66</v>
       </c>
@@ -25786,7 +25798,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>28</v>
       </c>
@@ -25797,7 +25809,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>38</v>
       </c>
@@ -25808,7 +25820,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>39</v>
       </c>
@@ -25819,7 +25831,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>80</v>
       </c>
@@ -25830,7 +25842,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>65</v>
       </c>
@@ -25841,7 +25853,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>40</v>
       </c>
@@ -25852,7 +25864,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
@@ -25863,7 +25875,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>42</v>
       </c>
@@ -25874,7 +25886,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>52</v>
       </c>
@@ -25885,7 +25897,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>26</v>
       </c>
@@ -25896,7 +25908,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>12</v>
       </c>

--- a/assets/data/Hunt_v2.xlsx
+++ b/assets/data/Hunt_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Discord_Bots\DoubleLung\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1D164-8F5D-4288-863A-C311A314F0CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532715AC-F2F4-41A9-B202-B8398026B2BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7980" windowWidth="28800" windowHeight="6915" tabRatio="690" activeTab="2" xr2:uid="{49463AEE-7DC0-4014-BA40-AA309B07B9F3}"/>
+    <workbookView xWindow="0" yWindow="7980" windowWidth="28800" windowHeight="6915" tabRatio="690" activeTab="8" xr2:uid="{49463AEE-7DC0-4014-BA40-AA309B07B9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="22" r:id="rId1"/>
@@ -21,10 +21,12 @@
     <sheet name="Scents" sheetId="27" r:id="rId6"/>
     <sheet name="Stats" sheetId="21" r:id="rId7"/>
     <sheet name="Tags" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="32" r:id="rId9"/>
-    <sheet name="nn_commands" sheetId="29" r:id="rId10"/>
-    <sheet name="nn_species" sheetId="30" r:id="rId11"/>
-    <sheet name="nn_stat" sheetId="31" r:id="rId12"/>
+    <sheet name="Tags (2)" sheetId="33" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="34" r:id="rId11"/>
+    <sheet name="nn_commands" sheetId="29" r:id="rId12"/>
+    <sheet name="nn_species" sheetId="30" r:id="rId13"/>
+    <sheet name="nn_stat" sheetId="31" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Species!$A$1:$AB$60</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6777" uniqueCount="2918">
   <si>
     <t>active</t>
   </si>
@@ -7935,178 +7937,874 @@
     <t>["caller","listen","hear"]</t>
   </si>
   <si>
-    <t>"AxisDeer","axis","deer"</t>
-  </si>
-  <si>
-    <t>"BeceiteIbex","beceite","ibex"</t>
-  </si>
-  <si>
-    <t>"BighornSheep","big","horn","sheep","bighorn"</t>
-  </si>
-  <si>
-    <t>"BlackBear","black","bear"</t>
-  </si>
-  <si>
-    <t>"Blackbuck","black","buck","blackbuck"</t>
-  </si>
-  <si>
-    <t>"BlacktailDeer","black","tail","deer","blacktail"</t>
-  </si>
-  <si>
-    <t>"BlueWildebeest","blue","wilde","beest","beast","wild","wildebeest","wildebeast"</t>
-  </si>
-  <si>
-    <t>"BrownBear","brown","bear","eurasian","asian"</t>
-  </si>
-  <si>
-    <t>"CanadaGoose","canada","goose","geese","canadian"</t>
-  </si>
-  <si>
-    <t>"CapeBuffalo","cape","buffalo"</t>
-  </si>
-  <si>
-    <t>"Caribou","caribou"</t>
-  </si>
-  <si>
-    <t>"Chamois","chamois"</t>
-  </si>
-  <si>
-    <t>"CinnamonTeal","cinnamon","teal"</t>
-  </si>
-  <si>
-    <t>"Coyote","coyote"</t>
-  </si>
-  <si>
-    <t>"EurasianLynx","eurasian","lynx","asian"</t>
-  </si>
-  <si>
-    <t>"EuropeanBison","european","bison","europe"</t>
-  </si>
-  <si>
-    <t>"EuropeanHare","european","hare","europe"</t>
-  </si>
-  <si>
-    <t>"EuropeanRabbit","european","rabbit","europe"</t>
-  </si>
-  <si>
-    <t>"FallowDeer","fallow","deer"</t>
-  </si>
-  <si>
-    <t>"FeralGoat","feral","goat"</t>
-  </si>
-  <si>
-    <t>"FeralPig","feral","pig","hog"</t>
-  </si>
-  <si>
-    <t>"Gemsbok","gems","bok","gemsbok"</t>
-  </si>
-  <si>
-    <t>"GredosIbex","gredos","ibex","gredo"</t>
-  </si>
-  <si>
-    <t>"GreyWolf","grey","wolf","wolves","gray"</t>
-  </si>
-  <si>
-    <t>"GrizzlyBear","grizzly","bear","grizzlie"</t>
-  </si>
-  <si>
-    <t>"HarlequinDuck","harlequin","duck","harley","harle","quin"</t>
-  </si>
-  <si>
-    <t>"IberianMouflon","iberian","mou","flon","mouflon"</t>
-  </si>
-  <si>
-    <t>"IberianWolf","iberian","wolf","wolves"</t>
-  </si>
-  <si>
-    <t>"Jackrabbit","jack","rabbit","jackrabbit"</t>
-  </si>
-  <si>
-    <t>"LesserKudu","lesser","kudu"</t>
-  </si>
-  <si>
-    <t>"Lion","lion","lioness"</t>
-  </si>
-  <si>
-    <t>"Mallard","mallard"</t>
-  </si>
-  <si>
-    <t>"Moose","moose"</t>
-  </si>
-  <si>
-    <t>"MountainGoat","mountain","goat"</t>
-  </si>
-  <si>
-    <t>"MountainLion","mountain","lion"</t>
-  </si>
-  <si>
-    <t>"MuleDeer","mule","deer"</t>
-  </si>
-  <si>
-    <t>"MuskDeer","musk","deer"</t>
-  </si>
-  <si>
-    <t>"PlainsBison","plains","bison"</t>
-  </si>
-  <si>
-    <t>"Pronghorn","prong","horn","pronghorn"</t>
-  </si>
-  <si>
-    <t>"Puma","puma"</t>
-  </si>
-  <si>
-    <t>"RedDeer","red","deer","reddeer"</t>
-  </si>
-  <si>
-    <t>"RedFox","red","fox"</t>
-  </si>
-  <si>
-    <t>"Reindeer","rein","deer","rain","reindeer","raindeer"</t>
-  </si>
-  <si>
-    <t>"RockyMountainElk","rocky","mountain","elk","rockymountain"</t>
-  </si>
-  <si>
-    <t>"RoeDeer","roe","deer","roedeer"</t>
-  </si>
-  <si>
-    <t>"RondaIbex","ronda","ibez"</t>
-  </si>
-  <si>
-    <t>"RooseveltElk","roosevelt","elk"</t>
-  </si>
-  <si>
-    <t>"ScrubHare","scrub","hare","scrubhare"</t>
-  </si>
-  <si>
-    <t>"SideStripedJackal","side","striped","jackal","sidestriped"</t>
-  </si>
-  <si>
-    <t>"SikaDeer","sika","deer"</t>
-  </si>
-  <si>
-    <t>"SoutheasternIbex","south","eastern","ibex","southeastern"</t>
-  </si>
-  <si>
-    <t>"Springbok","spring","bok","springbok"</t>
-  </si>
-  <si>
-    <t>"Turkey","turkey"</t>
-  </si>
-  <si>
-    <t>"Warthog","wart","hog","warthog"</t>
-  </si>
-  <si>
-    <t>"WaterBuffalo","water","buffalo"</t>
-  </si>
-  <si>
-    <t>"WhitetailDeer","white","tail","deer","whitetail"</t>
-  </si>
-  <si>
-    <t>"WildBoar","wild","boar"</t>
-  </si>
-  <si>
-    <t>"AxisDeer","axis","deer","BeceiteIbex","beceite","ibex","BighornSheep","big","horn","sheep","bighorn","BlackBear","black","bear","Blackbuck","black","buck","blackbuck","BlacktailDeer","black","tail","deer","blacktail","BlueWildebeest","blue","wilde","beest","beast","wild","wildebeest","wildebeast","BrownBear","brown","bear","eurasian","asian","CanadaGoose","canada","goose","geese","canadian","CapeBuffalo","cape","buffalo","Caribou","caribou","Chamois","chamois","CinnamonTeal","cinnamon","teal","Coyote","coyote","EurasianLynx","eurasian","lynx","asian","EuropeanBison","european","bison","europe","EuropeanHare","european","hare","europe","FallowDeer","fallow","deer","EuropeanRabbit","european","rabbit","europe","FeralGoat","feral","goat","FeralPig","feral","pig","hog","Gemsbok","gems","bok","gemsbok","GredosIbex","gredos","ibex","gredo","GreyWolf","grey","wolf","wolves","gray","GrizzlyBear","grizzly","bear","grizzlie","HarlequinDuck","harlequin","duck","harley","harle","quin","IberianMouflon","iberian","mou","flon","mouflon","IberianWolf","iberian","wolf","wolves","Jackrabbit","jack","rabbit","jackrabbit","LesserKudu","lesser","kudu","Lion","lion","lioness","Mallard","mallard","Moose","moose","MountainGoat","mountain","goat","MountainLion","mountain","lion","MuleDeer","mule","deer","MuskDeer","musk","deer","PlainsBison","plains","bison","Pronghorn","prong","horn","pronghorn","Puma","puma","RedDeer","red","deer","reddeer","RedFox","red","fox","Reindeer","rein","deer","rain","reindeer","raindeer","RockyMountainElk","rocky","mountain","elk","rockymountain","RoeDeer","roe","deer","roedeer","RondaIbex","ronda","ibez","RooseveltElk","roosevelt","elk","ScrubHare","scrub","hare","scrubhare","SideStripedJackal","side","striped","jackal","sidestriped","SikaDeer","sika","deer","SoutheasternIbex","south","eastern","ibex","southeastern","Springbok","spring","bok","springbok","Turkey","turkey","Warthog","wart","hog","warthog","WaterBuffalo","water","buffalo","WhitetailDeer","white","tail","deer","whitetail","WildBoar","wild","boar"</t>
+    <t>["species","genus","breed","animal","hunt","creature","predator","boar","sow","tom","queen","bull","cow","buck","doe","drake","vixen","dog","gander","ram","ewe","cob","pen"]</t>
+  </si>
+  <si>
+    <t>["axis","deer"]</t>
+  </si>
+  <si>
+    <t>["beceite","ibex"]</t>
+  </si>
+  <si>
+    <t>["black","bear"]</t>
+  </si>
+  <si>
+    <t>["black","tail","deer","blacktail"]</t>
+  </si>
+  <si>
+    <t>["brown","bear","eurasian","asian"]</t>
+  </si>
+  <si>
+    <t>["canada","goose","geese","canadian"]</t>
+  </si>
+  <si>
+    <t>["cape","buffalo"]</t>
+  </si>
+  <si>
+    <t>["cinnamon","teal"]</t>
+  </si>
+  <si>
+    <t>["eurasian","lynx","asian"]</t>
+  </si>
+  <si>
+    <t>["european","bison","europe"]</t>
+  </si>
+  <si>
+    <t>["european","hare","europe"]</t>
+  </si>
+  <si>
+    <t>["european","rabbit","europe"]</t>
+  </si>
+  <si>
+    <t>["fallow","deer"]</t>
+  </si>
+  <si>
+    <t>["feral","goat"]</t>
+  </si>
+  <si>
+    <t>["feral","pig","hog"]</t>
+  </si>
+  <si>
+    <t>["gredos","ibex","gredo"]</t>
+  </si>
+  <si>
+    <t>["grey","wolf","wolves","gray"]</t>
+  </si>
+  <si>
+    <t>["grizzly","bear","grizzlie"]</t>
+  </si>
+  <si>
+    <t>["iberian","wolf","wolves"]</t>
+  </si>
+  <si>
+    <t>["lesser","kudu"]</t>
+  </si>
+  <si>
+    <t>["lion","lioness"]</t>
+  </si>
+  <si>
+    <t>["mountain","goat"]</t>
+  </si>
+  <si>
+    <t>["mountain","lion"]</t>
+  </si>
+  <si>
+    <t>["mule","deer"]</t>
+  </si>
+  <si>
+    <t>["musk","deer"]</t>
+  </si>
+  <si>
+    <t>["plains","bison"]</t>
+  </si>
+  <si>
+    <t>["red","deer","reddeer"]</t>
+  </si>
+  <si>
+    <t>["red","fox"]</t>
+  </si>
+  <si>
+    <t>["roe","deer","roedeer"]</t>
+  </si>
+  <si>
+    <t>["ronda","ibez"]</t>
+  </si>
+  <si>
+    <t>["roosevelt","elk"]</t>
+  </si>
+  <si>
+    <t>["sika","deer"]</t>
+  </si>
+  <si>
+    <t>["water","buffalo"]</t>
+  </si>
+  <si>
+    <t>["white","tail","deer","whitetail"]</t>
+  </si>
+  <si>
+    <t>["wild","boar"]</t>
+  </si>
+  <si>
+    <t>["location","place","site","locale","spot","whereabouts","sceen","setting","area","environment","venue"]</t>
+  </si>
+  <si>
+    <t>["hirsch","felden","hirschfelden"]</t>
+  </si>
+  <si>
+    <t>["layton","lakes"]</t>
+  </si>
+  <si>
+    <t>["med","ved","tiaga","medved"]</t>
+  </si>
+  <si>
+    <t>["vurhonga","savanna"]</t>
+  </si>
+  <si>
+    <t>["parque","fernando"]</t>
+  </si>
+  <si>
+    <t>["yukon","valley"]</t>
+  </si>
+  <si>
+    <t>["cuatro","colinas","quatro"]</t>
+  </si>
+  <si>
+    <t>["silver","ridge","peaks","peeks","silverridge"]</t>
+  </si>
+  <si>
+    <t>["te","awaroa"]</t>
+  </si>
+  <si>
+    <t>["firearm","gun","pistol","revolver","rifle","shot","gun","weapon","shoot","wound","kill","execute","bring","down","bag","injure"]</t>
+  </si>
+  <si>
+    <t>["223","docent"]</t>
+  </si>
+  <si>
+    <t>["ranger","243"]</t>
+  </si>
+  <si>
+    <t>["270","strad","stradivarius"]</t>
+  </si>
+  <si>
+    <t>["270","hunts","man","huntsman"]</t>
+  </si>
+  <si>
+    <t>["7","mm","regent","magnum","milli","meter","07","mag","7mm","07mm","7milli","07milli","7millimeter","07millimeter"]</t>
+  </si>
+  <si>
+    <t>["range","master","338","rangemaster"]</t>
+  </si>
+  <si>
+    <t>["whit","lock","model","86","whitlock"]</t>
+  </si>
+  <si>
+    <t>["coach","mate","lever","45","70","coachmate","4570"]</t>
+  </si>
+  <si>
+    <t>["variant","22","lr","22lr"]</t>
+  </si>
+  <si>
+    <t>["king","470","db","470db","zenith"]</t>
+  </si>
+  <si>
+    <t>["solo","khin","mn","1890","kin"]</t>
+  </si>
+  <si>
+    <t>["300","canning","magnum","mag"]</t>
+  </si>
+  <si>
+    <t>["vasquez","cyclone","45"]</t>
+  </si>
+  <si>
+    <t>["eckers","30","06","6","ought","3006","306","30ought","30ought06","30ought6","ought06","ought6"]</t>
+  </si>
+  <si>
+    <t>["martensson","marten","son","6","65","mm","milli","meter","65mm","6mm","65milli","6mili","65millimeter","6millimeter"]</t>
+  </si>
+  <si>
+    <t>["hudzik","50","cap","lock","caliber","cal","50cal","50caliber","caplock"]</t>
+  </si>
+  <si>
+    <t>["iwaniec","grand","m","1","m1"]</t>
+  </si>
+  <si>
+    <t>["f","l","sport","sporter","303","fl"]</t>
+  </si>
+  <si>
+    <t>["caver","sham","steward","12","guage","g","caversham","12g","12guage"]</t>
+  </si>
+  <si>
+    <t>["cacciatore","12","guage","g","12g","12guage"]</t>
+  </si>
+  <si>
+    <t>["strecker","s","x","s","20","guage","g","sxs","20g","20guage"]</t>
+  </si>
+  <si>
+    <t>["nordin","20","sa","20sa"]</t>
+  </si>
+  <si>
+    <t>["grelck","drilling","rifle"]</t>
+  </si>
+  <si>
+    <t>["miller","model","1891"]</t>
+  </si>
+  <si>
+    <t>["grenkin","shot","gun","shotgun"]</t>
+  </si>
+  <si>
+    <t>["focoso","357"]</t>
+  </si>
+  <si>
+    <t>["44","panther","magnum","mag"]</t>
+  </si>
+  <si>
+    <t>["rhino","454"]</t>
+  </si>
+  <si>
+    <t>["mangiafico","410","45","colt","mangi","41045"]</t>
+  </si>
+  <si>
+    <t>["andersson","22","lr","22lr"]</t>
+  </si>
+  <si>
+    <t>["cross","point","cb","165","crosspoint","cb165"]</t>
+  </si>
+  <si>
+    <t>["razor","black","lite","light","cb","60","razorblack","cb60"]</t>
+  </si>
+  <si>
+    <t>["bear","claw","lite","light","cb","60","bearclaw","cb60"]</t>
+  </si>
+  <si>
+    <t>["houyi","recurve","bow"]</t>
+  </si>
+  <si>
+    <t>["hawk","edge","cb","70","hawkedge","cb70"]</t>
+  </si>
+  <si>
+    <t>["alexander","alex","longbow","long","bow"]</t>
+  </si>
+  <si>
+    <t>["bullets","shells","rounds","shot","slugs","cartridges","munition","ammunition","ammo","shoot","wound","kill","execute","bring","down","bag","injure"]</t>
+  </si>
+  <si>
+    <t>["22","lr","22lr"]</t>
+  </si>
+  <si>
+    <t>["0223","223"]</t>
+  </si>
+  <si>
+    <t>["0243","243"]</t>
+  </si>
+  <si>
+    <t>["027","27"]</t>
+  </si>
+  <si>
+    <t>["6","65","mm","milli","meter","6mm","65mm","6milli","65milli","6millimeter","65millimeter"]</t>
+  </si>
+  <si>
+    <t>["7","07","mm","milli","meter","7mm","07mm","7milli","07milli","7millimeter","07millimeter"]</t>
+  </si>
+  <si>
+    <t>["0338","338"]</t>
+  </si>
+  <si>
+    <t>["047","47"]</t>
+  </si>
+  <si>
+    <t>["30","3030"]</t>
+  </si>
+  <si>
+    <t>["0303","303"]</t>
+  </si>
+  <si>
+    <t>["45","70","4570"]</t>
+  </si>
+  <si>
+    <t>["93","x","74","r","93x","93x74","93x74r","x74r","x74","74r","9374","9374r"]</t>
+  </si>
+  <si>
+    <t>["30","6","06","ought","306","3006","30ought","30ought6","30ought06","ought6","ought06"]</t>
+  </si>
+  <si>
+    <t>["762","x","54","r"]</t>
+  </si>
+  <si>
+    <t>["045","45"]</t>
+  </si>
+  <si>
+    <t>["03","3"]</t>
+  </si>
+  <si>
+    <t>["05","5"]</t>
+  </si>
+  <si>
+    <t>["0357","357"]</t>
+  </si>
+  <si>
+    <t>["044","44"]</t>
+  </si>
+  <si>
+    <t>["0454","454"]</t>
+  </si>
+  <si>
+    <t>["041","41"]</t>
+  </si>
+  <si>
+    <t>["10","g","guage","10g","10guage"]</t>
+  </si>
+  <si>
+    <t>["12","g","guage","12g","12guage"]</t>
+  </si>
+  <si>
+    <t>["16","g","guage","16g","16guage"]</t>
+  </si>
+  <si>
+    <t>["20","g","guage","20g","20guage"]</t>
+  </si>
+  <si>
+    <t>["300","g","grain","300g","300grain"]</t>
+  </si>
+  <si>
+    <t>["350","g","grain","350g","350grain"]</t>
+  </si>
+  <si>
+    <t>["420","g","grain","420g","420grain"]</t>
+  </si>
+  <si>
+    <t>["540","g","grain","540g","540grain"]</t>
+  </si>
+  <si>
+    <t>["600","g","grain","600g","600grain"]</t>
+  </si>
+  <si>
+    <t>["700","g","grain","700g","700grain"]</t>
+  </si>
+  <si>
+    <t>["call","in","mating","caller","level","range","duration","strength"]</t>
+  </si>
+  <si>
+    <t>["roe","deer"]</t>
+  </si>
+  <si>
+    <t>["axis","deer","screamer"]</t>
+  </si>
+  <si>
+    <t>["predator","jack","rabbit"]</t>
+  </si>
+  <si>
+    <t>["short","reed","canada","canadian","goose","geese"]</t>
+  </si>
+  <si>
+    <t>["beacon","delux","duck"]</t>
+  </si>
+  <si>
+    <t>["deer","bleat"]</t>
+  </si>
+  <si>
+    <t>["deer","grunt"]</t>
+  </si>
+  <si>
+    <t>["antler","rattler"]</t>
+  </si>
+  <si>
+    <t>["buck","snort","wheeze"]</t>
+  </si>
+  <si>
+    <t>["predator","distressed","fawn"]</t>
+  </si>
+  <si>
+    <t>["red","deer"]</t>
+  </si>
+  <si>
+    <t>["scent","scentsmell","scentspray","smell","spray","smellspray","scents","smells","sprays"]</t>
+  </si>
+  <si>
+    <t>["wild","boar","wildboar"]</t>
+  </si>
+  <si>
+    <t>["musk","deer","muskdeer"]</t>
+  </si>
+  <si>
+    <t>["mule","deer","muledeer"]</t>
+  </si>
+  <si>
+    <t>["position","place","site","local","locale","spot","where","where","area","environment","bearings"]</t>
+  </si>
+  <si>
+    <t>["category","grade","rating","group","set","kind","type","rank","level","set","status"]</t>
+  </si>
+  <si>
+    <t>["strength","difficulty"]</t>
+  </si>
+  <si>
+    <t>["sight","see","sense","hear","listen","aware","detect"]</t>
+  </si>
+  <si>
+    <t>["rating","grade","count","result","total","count","win","record"]</t>
+  </si>
+  <si>
+    <t>["biggest","highest","largest","top","most","limit","greatest","peak","ceiling","top"]</t>
+  </si>
+  <si>
+    <t>["hair","coat","mane","fleece","pelt","skin","fell","hide"]</t>
+  </si>
+  <si>
+    <t>["relax","loaf","nap","doze","snooze","sleep","drowse","slumber","lie","down","sit","siesta","leisure","vacation"]</t>
+  </si>
+  <si>
+    <t>["eat","snack","graze","nosh","grop","pasture","nourish","sustain"]</t>
+  </si>
+  <si>
+    <t>["guzzle","consume","swig","water","lake","pond","river","stream","creek"]</t>
+  </si>
+  <si>
+    <t>["listen","hear","call","in","mating","caller"]</t>
+  </si>
+  <si>
+    <t>["aroma","odor","whiff","bouquet","nose","stink","stench","smell","detect","perceive","wind","perfume"]</t>
+  </si>
+  <si>
+    <t>["firearm","gun","pistol","revolver","rifle","shot","gun"]</t>
+  </si>
+  <si>
+    <t>["bullets","shells","rounds","shot","slugs","cartridges","munitions","ammunition"]</t>
+  </si>
+  <si>
+    <t>["about","active","area","behavior","challenge","class","color","detection","difficulty","find","fur","general","habitat","information","level","location","pelt","rare","skin","social","tough","type","where","senses","position","place","site","local","locale","spot","where","where","area","environment","bearings","abouts","category","grade","rating","group","set","kind","type","rank","level","set","status","sight","see","sense","hear","listen","aware","detect","hair","coat","mane","fleece","pelt","skin","skin","fell","hide"]</t>
+  </si>
+  <si>
+    <t>["big","diamond","gold","heavy","large","max","maximum","minimum","score","silver","size","weight","min","strength","difficulty","rating","grade","count","result","total","count","win","record","biggest","highest","largest","top","most","limit","greatest","peak","ceiling","top"]</t>
+  </si>
+  <si>
+    <t>["bed","drink","eat","feed","need","other","rest","score","sleep","time","unknown","water","zone","relax","loaf","nap","doze","snooze","sleep","drowse","slumber","lie","down","sit","siesta","leisure","vacation","eat","snack","graze","nosh","grop","pasture","nourish","sustain","guzzle","consume","swig","water","lake","pond","river","stream","creek"]</t>
+  </si>
+  <si>
+    <t>["arrow","bird","bolt","bow","buck","bullet","caller","cross","gun","hand","kill","pistol","rifle","shell","shoot","shot","shotgun","slug","weapon","ammo","listen","hear","aroma","odor","whiff","bouquet","nose","stink","stench","smell","detect","perceive","wind","perfume","firearm","gun","pistol","revolver","rifle","shot","gun","bullets","shells","rounds","shot","slugs","cartridges","munitions","ammunition"]</t>
+  </si>
+  <si>
+    <t>["high","how","lake","most","pond","position","relax","scent","smell","spray","very","what","when","species"]</t>
+  </si>
+  <si>
+    <t>["position","place","site","local","locale","spot","where","where","area","environment","bearings","abouts","location"]</t>
+  </si>
+  <si>
+    <t>["bullets","shells","rounds","shot","slugs","cartridges","munitions","ammunition","ammo","shoot","wound","kill","execute","bring","down","bag","injure"]</t>
+  </si>
+  <si>
+    <t>["call","in","mating","caller"]</t>
+  </si>
+  <si>
+    <t>["kind","sort","variety","group","set"]</t>
+  </si>
+  <si>
+    <t>["precision","reliability","true"]</t>
+  </si>
+  <si>
+    <t>["kick","kickback","jerk","jerkback","back","spring","springback"]</t>
+  </si>
+  <si>
+    <t>["rate","pace"]</t>
+  </si>
+  <si>
+    <t>["hip","hipfire","fire"]</t>
+  </si>
+  <si>
+    <t>["number","ammo"]</t>
+  </si>
+  <si>
+    <t>["variation","alternative","different","other","form"]</t>
+  </si>
+  <si>
+    <t>["radius","reach","scale","area","field","span"]</t>
+  </si>
+  <si>
+    <t>["piercing","puncture","impaling"]</t>
+  </si>
+  <si>
+    <t>["extension","spread","swell","widen","enlarge","area","damage"]</t>
+  </si>
+  <si>
+    <t>["length","time","period","term","extent","continuation"]</t>
+  </si>
+  <si>
+    <t>["power","vigor","resistance","intensity","force","degree","level"]</t>
+  </si>
+  <si>
+    <t>["quantity","how ","many","portion","item"]</t>
+  </si>
+  <si>
+    <t>"axis","deer"</t>
+  </si>
+  <si>
+    <t>"beceite","ibex"</t>
+  </si>
+  <si>
+    <t>"big","horn","sheep","bighorn"</t>
+  </si>
+  <si>
+    <t>"black","bear"</t>
+  </si>
+  <si>
+    <t>"black","buck","blackbuck"</t>
+  </si>
+  <si>
+    <t>"black","tail","deer","blacktail"</t>
+  </si>
+  <si>
+    <t>"blue","wilde","beest","beast","wild","wildebeest","wildebeast"</t>
+  </si>
+  <si>
+    <t>"brown","bear","eurasian","asian"</t>
+  </si>
+  <si>
+    <t>"canada","goose","geese","canadian"</t>
+  </si>
+  <si>
+    <t>"cape","buffalo"</t>
+  </si>
+  <si>
+    <t>"caribou"</t>
+  </si>
+  <si>
+    <t>"chamois"</t>
+  </si>
+  <si>
+    <t>"cinnamon","teal"</t>
+  </si>
+  <si>
+    <t>"coyote"</t>
+  </si>
+  <si>
+    <t>"eurasian","lynx","asian"</t>
+  </si>
+  <si>
+    <t>"european","bison","europe"</t>
+  </si>
+  <si>
+    <t>"european","hare","europe"</t>
+  </si>
+  <si>
+    <t>"european","rabbit","europe"</t>
+  </si>
+  <si>
+    <t>"fallow","deer"</t>
+  </si>
+  <si>
+    <t>"feral","goat"</t>
+  </si>
+  <si>
+    <t>"feral","pig","hog"</t>
+  </si>
+  <si>
+    <t>"gems","bok","gemsbok"</t>
+  </si>
+  <si>
+    <t>"gredos","ibex","gredo"</t>
+  </si>
+  <si>
+    <t>"grey","wolf","wolves","gray"</t>
+  </si>
+  <si>
+    <t>"grizzly","bear","grizzlie"</t>
+  </si>
+  <si>
+    <t>"harlequin","duck","harley","harle","quin"</t>
+  </si>
+  <si>
+    <t>"iberian","mou","flon","mouflon"</t>
+  </si>
+  <si>
+    <t>"iberian","wolf","wolves"</t>
+  </si>
+  <si>
+    <t>"jack","rabbit","jackrabbit"</t>
+  </si>
+  <si>
+    <t>"lesser","kudu"</t>
+  </si>
+  <si>
+    <t>"lion","lioness"</t>
+  </si>
+  <si>
+    <t>"mallard"</t>
+  </si>
+  <si>
+    <t>"moose"</t>
+  </si>
+  <si>
+    <t>"mountain","goat"</t>
+  </si>
+  <si>
+    <t>"mountain","lion"</t>
+  </si>
+  <si>
+    <t>"mule","deer"</t>
+  </si>
+  <si>
+    <t>"musk","deer"</t>
+  </si>
+  <si>
+    <t>"plains","bison"</t>
+  </si>
+  <si>
+    <t>"prong","horn","pronghorn"</t>
+  </si>
+  <si>
+    <t>"puma"</t>
+  </si>
+  <si>
+    <t>"red","deer","reddeer"</t>
+  </si>
+  <si>
+    <t>"red","fox"</t>
+  </si>
+  <si>
+    <t>"rein","deer","rain","reindeer","raindeer"</t>
+  </si>
+  <si>
+    <t>"rocky","mountain","elk","rockymountain"</t>
+  </si>
+  <si>
+    <t>"roe","deer","roedeer"</t>
+  </si>
+  <si>
+    <t>"ronda","ibez"</t>
+  </si>
+  <si>
+    <t>"roosevelt","elk"</t>
+  </si>
+  <si>
+    <t>"scrub","hare","scrubhare"</t>
+  </si>
+  <si>
+    <t>"side","striped","jackal","sidestriped"</t>
+  </si>
+  <si>
+    <t>"sika","deer"</t>
+  </si>
+  <si>
+    <t>"south","eastern","ibex","southeastern"</t>
+  </si>
+  <si>
+    <t>"spring","bok","springbok"</t>
+  </si>
+  <si>
+    <t>"turkey"</t>
+  </si>
+  <si>
+    <t>"wart","hog","warthog"</t>
+  </si>
+  <si>
+    <t>"water","buffalo"</t>
+  </si>
+  <si>
+    <t>"white","tail","deer","whitetail"</t>
+  </si>
+  <si>
+    <t>"wild","boar"</t>
+  </si>
+  <si>
+    <t>"axis","deer","beceite","ibex","big","horn","sheep","bighorn","black","bear","black","buck","blackbuck","black","tail","deer","blacktail","blue","wilde","beest","beast","wild","wildebeest","wildebeast","brown","bear","eurasian","asian","canada","goose","geese","canadian","cape","buffalo","caribou","chamois","cinnamon","teal","coyote","eurasian","lynx","asian","european","bison","europe","european","hare","europe","fallow","deer","european","rabbit","europe","feral","goat","feral","pig","hog","gems","bok","gemsbok","gredos","ibex","gredo","grey","wolf","wolves","gray","grizzly","bear","grizzlie","harlequin","duck","harley","harle","quin","iberian","mou","flon","mouflon","iberian","wolf","wolves","jack","rabbit","jackrabbit","lesser","kudu","lion","lioness","mallard","moose","mountain","goat","mountain","lion","mule","deer","musk","deer","plains","bison","prong","horn","pronghorn","puma","red","deer","reddeer","red","fox","rein","deer","rain","reindeer","raindeer","rocky","mountain","elk","rockymountain","roe","deer","roedeer","ronda","ibez","roosevelt","elk","scrub","hare","scrubhare","side","striped","jackal","sidestriped","sika","deer","south","eastern","ibex","southeastern","spring","bok","springbok","turkey","wart","hog","warthog","water","buffalo","white","tail","deer","whitetail","wild","boar"</t>
+  </si>
+  <si>
+    <t>["big","horn","sheep"]</t>
+  </si>
+  <si>
+    <t>["black","buck"]</t>
+  </si>
+  <si>
+    <t>["black","tail","deer"]</t>
+  </si>
+  <si>
+    <t>["blue","wilde","beest","beast","wild"]</t>
+  </si>
+  <si>
+    <t>["gems","bok"]</t>
+  </si>
+  <si>
+    <t>["duck","harley","harle","quin"]</t>
+  </si>
+  <si>
+    <t>["iberian","mou","flon"]</t>
+  </si>
+  <si>
+    <t>["jack","rabbit"]</t>
+  </si>
+  <si>
+    <t>["prong","horn"]</t>
+  </si>
+  <si>
+    <t>["rein","deer","rain"]</t>
+  </si>
+  <si>
+    <t>["rocky","mountain","elk"]</t>
+  </si>
+  <si>
+    <t>["scrub","hare"]</t>
+  </si>
+  <si>
+    <t>["coyote","yote"]</t>
+  </si>
+  <si>
+    <t>["side","striped","jackal","-"]</t>
+  </si>
+  <si>
+    <t>["south","eastern","ibex"]</t>
+  </si>
+  <si>
+    <t>["spring","bok"]</t>
+  </si>
+  <si>
+    <t>["wart","hog"]</t>
+  </si>
+  <si>
+    <t>["white","tail","deer"]</t>
+  </si>
+  <si>
+    <t>["6","65","mm","milli","meter"]</t>
+  </si>
+  <si>
+    <t>["7","07","mm","milli","meter"]</t>
+  </si>
+  <si>
+    <t>["22","lr"]</t>
+  </si>
+  <si>
+    <t>["30","30"]</t>
+  </si>
+  <si>
+    <t>["45","70"]</t>
+  </si>
+  <si>
+    <t>["93","x","74","r"]</t>
+  </si>
+  <si>
+    <t>["30","6","06","ought"]</t>
+  </si>
+  <si>
+    <t>["10","g","guage"]</t>
+  </si>
+  <si>
+    <t>["12","g","guage"]</t>
+  </si>
+  <si>
+    <t>["16","g","guage"]</t>
+  </si>
+  <si>
+    <t>["20","g","guage"]</t>
+  </si>
+  <si>
+    <t>["300","g","grain"]</t>
+  </si>
+  <si>
+    <t>["350","g","grain"]</t>
+  </si>
+  <si>
+    <t>["420","g","grain"]</t>
+  </si>
+  <si>
+    <t>["540","g","grain"]</t>
+  </si>
+  <si>
+    <t>["600","g","grain"]</t>
+  </si>
+  <si>
+    <t>["700","g","grain"]</t>
+  </si>
+  <si>
+    <t>{".22LR":["22","lr"]}</t>
+  </si>
+  <si>
+    <t>{"0.223":["0223","223"]}</t>
+  </si>
+  <si>
+    <t>{"0.243":["0243","243"]}</t>
+  </si>
+  <si>
+    <t>{"0.27":["027","27"]}</t>
+  </si>
+  <si>
+    <t>{"6.5mm":["6","65","mm","milli","meter"]}</t>
+  </si>
+  <si>
+    <t>{"7mm":["7","07","mm","milli","meter"]}</t>
+  </si>
+  <si>
+    <t>{"0.338":["0338","338"]}</t>
+  </si>
+  <si>
+    <t>{"0.47":["047","47"]}</t>
+  </si>
+  <si>
+    <t>{"30-30":["30","30"]}</t>
+  </si>
+  <si>
+    <t>{"0.303":["0303","303"]}</t>
+  </si>
+  <si>
+    <t>{"45-70":["45","70"]}</t>
+  </si>
+  <si>
+    <t>{"9.3x74R":["93","x","74","r"]}</t>
+  </si>
+  <si>
+    <t>{".30-06":["30","6","06","ought"]}</t>
+  </si>
+  <si>
+    <t>{"7.62x54R":["762","x","54","r"]}</t>
+  </si>
+  <si>
+    <t>{"0.45":["045","45"]}</t>
+  </si>
+  <si>
+    <t>{"0.3":["03","3"]}</t>
+  </si>
+  <si>
+    <t>{"0.5":["05","5"]}</t>
+  </si>
+  <si>
+    <t>{"0.357":["0357","357"]}</t>
+  </si>
+  <si>
+    <t>{"0.44":["044","44"]}</t>
+  </si>
+  <si>
+    <t>{"0.454":["0454","454"]}</t>
+  </si>
+  <si>
+    <t>{"0.41":["041","41"]}</t>
+  </si>
+  <si>
+    <t>{"10G":["10","g","guage"]}</t>
+  </si>
+  <si>
+    <t>{"12G":["12","g","guage"]}</t>
+  </si>
+  <si>
+    <t>{"16G":["16","g","guage"]}</t>
+  </si>
+  <si>
+    <t>{"20G":["20","g","guage"]}</t>
+  </si>
+  <si>
+    <t>{"300 Grain":["300","g","grain"]}</t>
+  </si>
+  <si>
+    <t>{"350 Grain":["350","g","grain"]}</t>
+  </si>
+  <si>
+    <t>{"420 Grain":["420","g","grain"]}</t>
+  </si>
+  <si>
+    <t>{"540 Grain":["540","g","grain"]}</t>
+  </si>
+  <si>
+    <t>{"600 Grain":["600","g","grain"]}</t>
+  </si>
+  <si>
+    <t>{"700 Grain":["700","g","grain"]}</t>
   </si>
 </sst>
 </file>
@@ -13666,6 +14364,1041 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F01E02-1B83-4A33-A713-BF2DF16BFC13}">
+  <dimension ref="A1:B95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="42"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="42"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="42"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A19&amp;A18&amp;A20&amp;A21&amp;A22&amp;A23&amp;A24&amp;A25&amp;A26&amp;A27&amp;A28&amp;A29&amp;A30&amp;A31&amp;A32&amp;A33&amp;A34&amp;A35&amp;A36&amp;A37&amp;A38&amp;A39&amp;A40&amp;A41&amp;A42&amp;A43&amp;A44&amp;A45&amp;A46&amp;A47&amp;A48&amp;A49&amp;A50&amp;A51&amp;A52&amp;A53&amp;A54&amp;A55&amp;A56&amp;A57&amp;A58&amp;A59&amp;A60&amp;A61&amp;A62&amp;A63&amp;A64&amp;A65&amp;A66&amp;A67&amp;A68&amp;A69&amp;A70&amp;A71&amp;A72&amp;A73&amp;A74&amp;A75&amp;A76&amp;A77&amp;A78&amp;A79&amp;A80&amp;A81&amp;A82&amp;A83&amp;A84&amp;A85&amp;A86&amp;A87&amp;A88&amp;A89&amp;A90&amp;A91&amp;A92</f>
+        <v>"axis","deer""beceite","ibex""big","horn","sheep","bighorn""black","bear""black","buck","blackbuck""black","tail","deer","blacktail""blue","wilde","beest","beast","wild","wildebeest","wildebeast""brown","bear","eurasian","asian""canada","goose","geese","canadian""cape","buffalo""caribou""chamois""cinnamon","teal""coyote""eurasian","lynx","asian""european","bison","europe""european","hare","europe""fallow","deer""european","rabbit","europe""feral","goat""feral","pig","hog""gems","bok","gemsbok""gredos","ibex","gredo""grey","wolf","wolves","gray""grizzly","bear","grizzlie""harlequin","duck","harley","harle","quin""iberian","mou","flon","mouflon""iberian","wolf","wolves""jack","rabbit","jackrabbit""lesser","kudu""lion","lioness""mallard""moose""mountain","goat""mountain","lion""mule","deer""musk","deer""plains","bison""prong","horn","pronghorn""puma""red","deer","reddeer""red","fox""rein","deer","rain","reindeer","raindeer""rocky","mountain","elk","rockymountain""roe","deer","roedeer""ronda","ibez""roosevelt","elk""scrub","hare","scrubhare""side","striped","jackal","sidestriped""sika","deer""south","eastern","ibex","southeastern""spring","bok","springbok""turkey""wart","hog","warthog""water","buffalo""white","tail","deer","whitetail""wild","boar"</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B95" t="str">
+        <f>LOWER(A95)</f>
+        <v>"axis","deer","beceite","ibex","big","horn","sheep","bighorn","black","bear","black","buck","blackbuck","black","tail","deer","blacktail","blue","wilde","beest","beast","wild","wildebeest","wildebeast","brown","bear","eurasian","asian","canada","goose","geese","canadian","cape","buffalo","caribou","chamois","cinnamon","teal","coyote","eurasian","lynx","asian","european","bison","europe","european","hare","europe","fallow","deer","european","rabbit","europe","feral","goat","feral","pig","hog","gems","bok","gemsbok","gredos","ibex","gredo","grey","wolf","wolves","gray","grizzly","bear","grizzlie","harlequin","duck","harley","harle","quin","iberian","mou","flon","mouflon","iberian","wolf","wolves","jack","rabbit","jackrabbit","lesser","kudu","lion","lioness","mallard","moose","mountain","goat","mountain","lion","mule","deer","musk","deer","plains","bison","prong","horn","pronghorn","puma","red","deer","reddeer","red","fox","rein","deer","rain","reindeer","raindeer","rocky","mountain","elk","rockymountain","roe","deer","roedeer","ronda","ibez","roosevelt","elk","scrub","hare","scrubhare","side","striped","jackal","sidestriped","sika","deer","south","eastern","ibex","southeastern","spring","bok","springbok","turkey","wart","hog","warthog","water","buffalo","white","tail","deer","whitetail","wild","boar"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD25759-FFAE-4393-A068-5650AB71A8BA}">
+  <dimension ref="A1:D57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="66.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"{\"&amp;A1&amp;"\:"&amp;B1&amp;"}"</f>
+        <v>{\.22LR\:["22","lr"]}</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>0.223</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C36" si="0">"{\"&amp;A2&amp;"\:"&amp;B2&amp;"}"</f>
+        <v>{\0.223\:["0223","223"]}</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.243\:["0243","243"]}</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.27\:["027","27"]}</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{\6.5mm\:["6","65","mm","milli","meter"]}</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{\7mm\:["7","07","mm","milli","meter"]}</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.338\:["0338","338"]}</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.47\:["047","47"]}</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{\30-30\:["30","30"]}</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.303\:["0303","303"]}</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{\45-70\:["45","70"]}</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{\9.3x74R\:["93","x","74","r"]}</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{\.30-06\:["30","6","06","ought"]}</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{\7.62x54R\:["762","x","54","r"]}</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.45\:["045","45"]}</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.3\:["03","3"]}</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.5\:["05","5"]}</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.357\:["0357","357"]}</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.44\:["044","44"]}</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.45\:["045","45"]}</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.454\:["0454","454"]}</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{\0.41\:["041","41"]}</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{\10G\:["10","g","guage"]}</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{\12G\:["12","g","guage"]}</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{\16G\:["16","g","guage"]}</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{\20G\:["20","g","guage"]}</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{\300 Grain\:["300","g","grain"]}</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{\350 Grain\:["350","g","grain"]}</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{\420 Grain\:["420","g","grain"]}</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{\540 Grain\:["540","g","grain"]}</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>{\600 Grain\:["600","g","grain"]}</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{\700 Grain\:["700","g","grain"]}</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="42"/>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{\\:}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="42"/>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{\\:}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="42"/>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{\\:}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="42"/>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{\\:}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="42"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="42"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="42"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="42"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="42"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="42"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="42"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="42"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="42"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="42"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="42"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="42"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC2F6FE-40BF-4D98-90A1-ED1C1035FAD2}">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -13712,7 +15445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D5940F-1FBB-43B0-A84B-CC994BEFC4AB}">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -14369,7 +16102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF9FEB5-04AE-4149-8155-0EE367149D74}">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -15703,7 +17436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E91AFE-0B8E-4F18-8E46-1DCBBC146EF6}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -20010,8 +21743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD2FA7-52EE-4B9F-95EA-395442F103BB}">
   <dimension ref="A1:BL236"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="BL58" sqref="BL2:BL58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BL72" sqref="BL72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25906,421 +27639,6517 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F01E02-1B83-4A33-A713-BF2DF16BFC13}">
-  <dimension ref="A1:B95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E815F-3B31-443F-98E6-05E0780B1B06}">
+  <dimension ref="A1:BM236"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="BM209" sqref="BM209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="11.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="5" style="17" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7" style="17" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="6.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="8" style="17" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="7.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="5.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="5" style="17" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="6.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="4.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="5.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="48" max="49" width="9" style="17" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="5.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="4.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="5.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="5.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="5.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="4.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="4.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="5.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="4" style="17" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="4.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="3.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="4.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="7.140625" style="42" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="255.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="27.42578125" style="17"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BL1" s="42" t="s">
+        <v>2121</v>
+      </c>
+      <c r="BM1" s="42" t="s">
         <v>2628</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="BL2" s="42" t="s">
+        <v>2122</v>
+      </c>
+      <c r="BM2" s="42" t="s">
         <v>2629</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="BL3" s="42" t="s">
+        <v>2123</v>
+      </c>
+      <c r="BM3" s="42" t="s">
         <v>2630</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="BL4" s="42" t="s">
+        <v>2124</v>
+      </c>
+      <c r="BM4" s="42" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="BL5" s="42" t="s">
+        <v>2125</v>
+      </c>
+      <c r="BM5" s="42" t="s">
         <v>2631</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="BL6" s="42" t="s">
+        <v>2126</v>
+      </c>
+      <c r="BM6" s="42" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="BL7" s="42" t="s">
+        <v>2127</v>
+      </c>
+      <c r="BM7" s="42" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="BL8" s="42" t="s">
+        <v>2128</v>
+      </c>
+      <c r="BM8" s="42" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="BL9" s="42" t="s">
+        <v>2129</v>
+      </c>
+      <c r="BM9" s="42" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="BL10" s="42" t="s">
+        <v>2130</v>
+      </c>
+      <c r="BM10" s="42" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="BL11" s="42" t="s">
+        <v>2131</v>
+      </c>
+      <c r="BM11" s="42" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="BL12" s="42" t="s">
+        <v>2132</v>
+      </c>
+      <c r="BM12" s="42" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="BL13" s="42" t="s">
+        <v>2133</v>
+      </c>
+      <c r="BM13" s="42" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="BL14" s="42" t="s">
+        <v>2134</v>
+      </c>
+      <c r="BM14" s="42" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="BL15" s="42" t="s">
+        <v>2135</v>
+      </c>
+      <c r="BM15" s="42" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="BL16" s="42" t="s">
+        <v>2136</v>
+      </c>
+      <c r="BM16" s="42" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="BL17" s="42" t="s">
+        <v>2137</v>
+      </c>
+      <c r="BM17" s="42" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="BL18" s="42" t="s">
+        <v>2138</v>
+      </c>
+      <c r="BM18" s="42" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="BL19" s="42" t="s">
+        <v>2139</v>
+      </c>
+      <c r="BM19" s="42" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="BL20" s="42" t="s">
+        <v>2140</v>
+      </c>
+      <c r="BM20" s="42" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="BL21" s="42" t="s">
+        <v>2141</v>
+      </c>
+      <c r="BM21" s="42" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="BL22" s="42" t="s">
+        <v>2142</v>
+      </c>
+      <c r="BM22" s="42" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="BL23" s="42" t="s">
+        <v>2143</v>
+      </c>
+      <c r="BM23" s="42" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="BL24" s="42" t="s">
+        <v>2144</v>
+      </c>
+      <c r="BM24" s="42" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="BL25" s="42" t="s">
+        <v>2145</v>
+      </c>
+      <c r="BM25" s="42" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="BL26" s="42" t="s">
+        <v>2146</v>
+      </c>
+      <c r="BM26" s="42" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="BL27" s="42" t="s">
+        <v>2147</v>
+      </c>
+      <c r="BM27" s="42" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="BL28" s="42" t="s">
+        <v>2148</v>
+      </c>
+      <c r="BM28" s="42" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="BL29" s="42" t="s">
+        <v>2149</v>
+      </c>
+      <c r="BM29" s="42" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="BL30" s="42" t="s">
+        <v>2150</v>
+      </c>
+      <c r="BM30" s="42" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="BL31" s="42" t="s">
+        <v>2151</v>
+      </c>
+      <c r="BM31" s="42" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="BL32" s="42" t="s">
+        <v>2152</v>
+      </c>
+      <c r="BM32" s="42" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="BL33" s="42" t="s">
+        <v>2153</v>
+      </c>
+      <c r="BM33" s="42" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="BL34" s="42" t="s">
+        <v>2154</v>
+      </c>
+      <c r="BM34" s="42" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="BL35" s="42" t="s">
+        <v>2155</v>
+      </c>
+      <c r="BM35" s="42" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="BL36" s="42" t="s">
+        <v>2156</v>
+      </c>
+      <c r="BM36" s="42" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="BL37" s="42" t="s">
+        <v>2157</v>
+      </c>
+      <c r="BM37" s="42" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="BL38" s="42" t="s">
+        <v>2158</v>
+      </c>
+      <c r="BM38" s="42" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="BL39" s="42" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BM39" s="42" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="BL40" s="42" t="s">
+        <v>2160</v>
+      </c>
+      <c r="BM40" s="42" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="BL41" s="42" t="s">
+        <v>2161</v>
+      </c>
+      <c r="BM41" s="42" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="BL42" s="42" t="s">
+        <v>2162</v>
+      </c>
+      <c r="BM42" s="42" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="BL43" s="42" t="s">
+        <v>2163</v>
+      </c>
+      <c r="BM43" s="42" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="BL44" s="42" t="s">
+        <v>2164</v>
+      </c>
+      <c r="BM44" s="42" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="BL45" s="42" t="s">
+        <v>2165</v>
+      </c>
+      <c r="BM45" s="42" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="BL46" s="42" t="s">
+        <v>2166</v>
+      </c>
+      <c r="BM46" s="42" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="BL47" s="42" t="s">
+        <v>2167</v>
+      </c>
+      <c r="BM47" s="42" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="BL48" s="42" t="s">
+        <v>2168</v>
+      </c>
+      <c r="BM48" s="42" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="BL49" s="42" t="s">
+        <v>2169</v>
+      </c>
+      <c r="BM49" s="42" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="BL50" s="42" t="s">
+        <v>2170</v>
+      </c>
+      <c r="BM50" s="42" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="BL51" s="42" t="s">
+        <v>2171</v>
+      </c>
+      <c r="BM51" s="42" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="BL52" s="42" t="s">
+        <v>2172</v>
+      </c>
+      <c r="BM52" s="42" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="BL53" s="42" t="s">
+        <v>2173</v>
+      </c>
+      <c r="BM53" s="42" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="BL54" s="42" t="s">
+        <v>2174</v>
+      </c>
+      <c r="BM54" s="42" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="BL55" s="42" t="s">
+        <v>2175</v>
+      </c>
+      <c r="BM55" s="42" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="BL56" s="42" t="s">
+        <v>2176</v>
+      </c>
+      <c r="BM56" s="42" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="BL57" s="42" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BM57" s="42" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="BL58" s="42" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BM58" s="42" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>1687</v>
+      </c>
+      <c r="BL60" s="42" t="s">
+        <v>2179</v>
+      </c>
+      <c r="BM60" s="42" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="BL61" s="42" t="s">
+        <v>2180</v>
+      </c>
+      <c r="BM61" s="42" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="BL62" s="42" t="s">
+        <v>2181</v>
+      </c>
+      <c r="BM62" s="42" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>1682</v>
+      </c>
+      <c r="BL63" s="42" t="s">
+        <v>2182</v>
+      </c>
+      <c r="BM63" s="42" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="BL64" s="42" t="s">
+        <v>2183</v>
+      </c>
+      <c r="BM64" s="42" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="BL65" s="42" t="s">
+        <v>2184</v>
+      </c>
+      <c r="BM65" s="42" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="BL66" s="42" t="s">
+        <v>2185</v>
+      </c>
+      <c r="BM66" s="42" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="BL67" s="42" t="s">
+        <v>2186</v>
+      </c>
+      <c r="BM67" s="42" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>1683</v>
+      </c>
+      <c r="BL68" s="42" t="s">
+        <v>2187</v>
+      </c>
+      <c r="BM68" s="42" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="BL69" s="42" t="s">
+        <v>2188</v>
+      </c>
+      <c r="BM69" s="42" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BL71" s="42" t="s">
+        <v>2189</v>
+      </c>
+      <c r="BM71" s="42" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="BL72" s="42" t="s">
+        <v>2190</v>
+      </c>
+      <c r="BM72" s="42" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="BL73" s="42" t="s">
+        <v>2191</v>
+      </c>
+      <c r="BM73" s="42" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="BL74" s="42" t="s">
+        <v>2192</v>
+      </c>
+      <c r="BM74" s="42" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="BL75" s="42" t="s">
+        <v>2193</v>
+      </c>
+      <c r="BM75" s="42" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>1690</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="O76" s="17" t="s">
+        <v>1693</v>
+      </c>
+      <c r="BL76" s="42" t="s">
+        <v>2194</v>
+      </c>
+      <c r="BM76" s="42" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="77" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="BL77" s="42" t="s">
+        <v>2195</v>
+      </c>
+      <c r="BM77" s="42" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="BL78" s="42" t="s">
+        <v>2196</v>
+      </c>
+      <c r="BM78" s="42" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="BL79" s="42" t="s">
+        <v>2197</v>
+      </c>
+      <c r="BM79" s="42" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL80" s="42" t="s">
+        <v>2198</v>
+      </c>
+      <c r="BM80" s="42" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="81" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="BL81" s="42" t="s">
+        <v>2199</v>
+      </c>
+      <c r="BM81" s="42" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="BL82" s="42" t="s">
+        <v>2200</v>
+      </c>
+      <c r="BM82" s="42" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="BL83" s="42" t="s">
+        <v>2201</v>
+      </c>
+      <c r="BM83" s="42" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="84" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="BL84" s="42" t="s">
+        <v>2202</v>
+      </c>
+      <c r="BM84" s="42" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="85" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>1705</v>
+      </c>
+      <c r="M85" s="17" t="s">
+        <v>1706</v>
+      </c>
+      <c r="BL85" s="42" t="s">
+        <v>2203</v>
+      </c>
+      <c r="BM85" s="42" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>1708</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>1709</v>
+      </c>
+      <c r="M86" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>1711</v>
+      </c>
+      <c r="O86" s="17" t="s">
+        <v>1712</v>
+      </c>
+      <c r="BL86" s="42" t="s">
+        <v>2204</v>
+      </c>
+      <c r="BM86" s="42" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>1714</v>
+      </c>
+      <c r="BL87" s="42" t="s">
+        <v>2205</v>
+      </c>
+      <c r="BM87" s="42" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="88" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>1715</v>
+      </c>
+      <c r="BL88" s="42" t="s">
+        <v>2206</v>
+      </c>
+      <c r="BM88" s="42" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>1688</v>
+      </c>
+      <c r="BL89" s="42" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BM89" s="42" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="BL90" s="42" t="s">
+        <v>2208</v>
+      </c>
+      <c r="BM90" s="42" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="BL91" s="42" t="s">
+        <v>2209</v>
+      </c>
+      <c r="BM91" s="42" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="92" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>1719</v>
+      </c>
+      <c r="BL92" s="42" t="s">
+        <v>2210</v>
+      </c>
+      <c r="BM92" s="42" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BL93" s="42" t="s">
+        <v>2211</v>
+      </c>
+      <c r="BM93" s="42" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="BL94" s="42" t="s">
+        <v>2212</v>
+      </c>
+      <c r="BM94" s="42" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="BL95" s="42" t="s">
+        <v>2213</v>
+      </c>
+      <c r="BM95" s="42" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="BL96" s="42" t="s">
+        <v>2214</v>
+      </c>
+      <c r="BM96" s="42" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="97" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="BL97" s="42" t="s">
+        <v>2215</v>
+      </c>
+      <c r="BM97" s="42" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A98" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="BL98" s="42" t="s">
+        <v>2216</v>
+      </c>
+      <c r="BM98" s="42" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="BL99" s="42" t="s">
+        <v>2217</v>
+      </c>
+      <c r="BM99" s="42" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>1698</v>
+      </c>
+      <c r="BL100" s="42" t="s">
+        <v>2218</v>
+      </c>
+      <c r="BM100" s="42" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL101" s="42" t="s">
+        <v>2219</v>
+      </c>
+      <c r="BM101" s="42" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>1716</v>
+      </c>
+      <c r="BL102" s="42" t="s">
+        <v>2220</v>
+      </c>
+      <c r="BM102" s="42" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="103" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>1720</v>
+      </c>
+      <c r="BL103" s="42" t="s">
+        <v>2221</v>
+      </c>
+      <c r="BM103" s="42" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>1720</v>
+      </c>
+      <c r="BL104" s="42" t="s">
+        <v>2222</v>
+      </c>
+      <c r="BM104" s="42" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="105" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="BL105" s="42" t="s">
+        <v>2223</v>
+      </c>
+      <c r="BM105" s="42" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="106" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A106" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>1722</v>
+      </c>
+      <c r="BL106" s="42" t="s">
+        <v>2224</v>
+      </c>
+      <c r="BM106" s="42" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="107" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="BL107" s="42" t="s">
+        <v>2225</v>
+      </c>
+      <c r="BM107" s="42" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A109" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>2086</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P109" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q109" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R109" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BL109" s="42" t="s">
+        <v>2226</v>
+      </c>
+      <c r="BM109" s="42" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="110" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL110" s="42" t="s">
+        <v>2227</v>
+      </c>
+      <c r="BM110" s="42" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="111" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A111" s="17">
+        <v>0.223</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="BL111" s="42" t="s">
+        <v>2228</v>
+      </c>
+      <c r="BM111" s="42" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="112" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A112" s="17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="BL112" s="42" t="s">
+        <v>2229</v>
+      </c>
+      <c r="BM112" s="42" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="113" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A113" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="BL113" s="42" t="s">
+        <v>2230</v>
+      </c>
+      <c r="BM113" s="42" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K114" s="17" t="s">
+        <v>1712</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>1711</v>
+      </c>
+      <c r="BL114" s="42" t="s">
+        <v>2231</v>
+      </c>
+      <c r="BM114" s="42" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="115" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I115" s="17" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K115" s="17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>1693</v>
+      </c>
+      <c r="M115" s="18"/>
+      <c r="BL115" s="42" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BM115" s="42" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A116" s="17">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="BL116" s="42" t="s">
+        <v>2233</v>
+      </c>
+      <c r="BM116" s="42" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A117" s="17">
+        <v>0.47</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="BL117" s="42" t="s">
+        <v>2234</v>
+      </c>
+      <c r="BM117" s="42" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="118" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="BL118" s="42" t="s">
+        <v>2235</v>
+      </c>
+      <c r="BM118" s="42" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="119" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A119" s="17">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="BL119" s="42" t="s">
+        <v>2236</v>
+      </c>
+      <c r="BM119" s="42" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="120" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="BL120" s="42" t="s">
+        <v>2237</v>
+      </c>
+      <c r="BM120" s="42" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="121" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I121" s="17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>2055</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>2056</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>2057</v>
+      </c>
+      <c r="M121" s="17" t="s">
+        <v>2060</v>
+      </c>
+      <c r="BL121" s="42" t="s">
+        <v>2238</v>
+      </c>
+      <c r="BM121" s="42" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="122" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>1706</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>1705</v>
+      </c>
+      <c r="BL122" s="42" t="s">
+        <v>2239</v>
+      </c>
+      <c r="BM122" s="42" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="123" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="M123" s="18"/>
+      <c r="BL123" s="42" t="s">
+        <v>2240</v>
+      </c>
+      <c r="BM123" s="42" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="124" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A124" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="BL124" s="42" t="s">
+        <v>2241</v>
+      </c>
+      <c r="BM124" s="42" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="125" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A125" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="BL125" s="42" t="s">
+        <v>2242</v>
+      </c>
+      <c r="BM125" s="42" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="126" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A126" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="M126" s="18"/>
+      <c r="BL126" s="42" t="s">
+        <v>2243</v>
+      </c>
+      <c r="BM126" s="42" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="127" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A127" s="17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="M127" s="18"/>
+      <c r="BL127" s="42" t="s">
+        <v>2244</v>
+      </c>
+      <c r="BM127" s="42" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="128" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A128" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="BL128" s="42" t="s">
+        <v>2245</v>
+      </c>
+      <c r="BM128" s="42" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="129" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A129" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="BL129" s="42" t="s">
+        <v>2241</v>
+      </c>
+      <c r="BM129" s="42" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="130" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A130" s="17">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="BL130" s="42" t="s">
+        <v>2246</v>
+      </c>
+      <c r="BM130" s="42" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="131" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A131" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="BL131" s="42" t="s">
+        <v>2247</v>
+      </c>
+      <c r="BM131" s="42" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="132" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F132" s="17" t="s">
+        <v>2058</v>
+      </c>
+      <c r="BL132" s="42" t="s">
+        <v>2248</v>
+      </c>
+      <c r="BM132" s="42" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="BL133" s="42" t="s">
+        <v>2249</v>
+      </c>
+      <c r="BM133" s="42" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="134" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>2059</v>
+      </c>
+      <c r="BL134" s="42" t="s">
+        <v>2250</v>
+      </c>
+      <c r="BM134" s="42" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>1719</v>
+      </c>
+      <c r="BL135" s="42" t="s">
+        <v>2251</v>
+      </c>
+      <c r="BM135" s="42" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="136" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="BL136" s="42" t="s">
+        <v>2252</v>
+      </c>
+      <c r="BM136" s="42" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="137" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="BL137" s="42" t="s">
+        <v>2253</v>
+      </c>
+      <c r="BM137" s="42" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="BL138" s="42" t="s">
+        <v>2254</v>
+      </c>
+      <c r="BM138" s="42" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="BL139" s="42" t="s">
+        <v>2255</v>
+      </c>
+      <c r="BM139" s="42" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="140" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A140" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="BL140" s="42" t="s">
+        <v>2256</v>
+      </c>
+      <c r="BM140" s="42" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="141" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A141" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="BL141" s="42" t="s">
+        <v>2257</v>
+      </c>
+      <c r="BM141" s="42" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="143" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="G143" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="I143" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="BL143" s="42" t="s">
+        <v>2258</v>
+      </c>
+      <c r="BM143" s="42" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="144" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="BL144" s="42" t="s">
+        <v>2259</v>
+      </c>
+      <c r="BM144" s="42" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="145" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="BL145" s="42" t="s">
+        <v>2260</v>
+      </c>
+      <c r="BM145" s="42" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="146" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="BL146" s="42" t="s">
+        <v>2261</v>
+      </c>
+      <c r="BM146" s="42" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="147" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="BL147" s="42" t="s">
+        <v>2262</v>
+      </c>
+      <c r="BM147" s="42" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="148" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A148" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="BL148" s="42" t="s">
+        <v>2263</v>
+      </c>
+      <c r="BM148" s="42" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="149" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="BL149" s="42" t="s">
+        <v>2264</v>
+      </c>
+      <c r="BM149" s="42" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="150" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A150" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="BL150" s="42" t="s">
+        <v>2265</v>
+      </c>
+      <c r="BM150" s="42" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="151" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A151" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="BL151" s="42" t="s">
+        <v>2266</v>
+      </c>
+      <c r="BM151" s="42" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="152" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A152" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="BL152" s="42" t="s">
+        <v>2267</v>
+      </c>
+      <c r="BM152" s="42" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="153" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A153" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="BL153" s="42" t="s">
+        <v>2268</v>
+      </c>
+      <c r="BM153" s="42" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A154" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="BL154" s="42" t="s">
+        <v>2269</v>
+      </c>
+      <c r="BM154" s="42" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="BL155" s="42" t="s">
+        <v>2270</v>
+      </c>
+      <c r="BM155" s="42" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="156" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="BL156" s="42" t="s">
+        <v>2271</v>
+      </c>
+      <c r="BM156" s="42" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A157" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="BL157" s="42" t="s">
+        <v>2272</v>
+      </c>
+      <c r="BM157" s="42" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="159" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="BL159" s="42" t="s">
+        <v>2273</v>
+      </c>
+      <c r="BM159" s="42" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="160" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>1673</v>
+      </c>
+      <c r="BL160" s="42" t="s">
+        <v>2127</v>
+      </c>
+      <c r="BM160" s="42" t="s">
         <v>2632</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="161" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL161" s="42" t="s">
+        <v>2166</v>
+      </c>
+      <c r="BM161" s="42" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="162" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="BL162" s="42" t="s">
+        <v>2168</v>
+      </c>
+      <c r="BM162" s="42" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="163" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL163" s="42" t="s">
+        <v>2154</v>
+      </c>
+      <c r="BM163" s="42" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="164" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL164" s="42" t="s">
+        <v>2162</v>
+      </c>
+      <c r="BM164" s="42" t="s">
         <v>2655</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+    <row r="165" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>1675</v>
+      </c>
+      <c r="BL165" s="42" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BM165" s="42" t="s">
         <v>2662</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+    <row r="166" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL166" s="42" t="s">
+        <v>2274</v>
+      </c>
+      <c r="BM166" s="42" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="167" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="BL167" s="42" t="s">
+        <v>2275</v>
+      </c>
+      <c r="BM167" s="42" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="168" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL168" s="42" t="s">
+        <v>2276</v>
+      </c>
+      <c r="BM168" s="42" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="170" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z170" s="15"/>
+      <c r="AA170" s="15"/>
+      <c r="AB170" s="15"/>
+      <c r="BL170" s="42" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A171" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="I171" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="J171" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="K171" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="L171" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL171" s="42" t="s">
+        <v>2278</v>
+      </c>
+      <c r="BM171" s="42" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="172" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="F172" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="I172" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="J172" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="K172" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="L172" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="BL172" s="42" t="s">
+        <v>2279</v>
+      </c>
+      <c r="BM172" s="42" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="173" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A173" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="BL173" s="42" t="s">
+        <v>2280</v>
+      </c>
+      <c r="BM173" s="42" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="174" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A174" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL174" s="42" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A175" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL175" s="42" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="176" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A176" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F176" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="BL176" s="42" t="s">
+        <v>2283</v>
+      </c>
+      <c r="BM176" s="42" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="177" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A177" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL177" s="42" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="178" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A178" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL178" s="42" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="179" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A179" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL179" s="42" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL180" s="42" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL181" s="42" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="182" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A182" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="I182" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="BL182" s="42" t="s">
+        <v>2289</v>
+      </c>
+      <c r="BM182" s="42" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="183" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A183" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I183" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="J183" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="K183" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="BL183" s="42" t="s">
+        <v>2290</v>
+      </c>
+      <c r="BM183" s="42" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="184" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="BL184" s="42" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A185" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="BL185" s="42" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="186" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A186" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="I186" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="BL186" s="42" t="s">
+        <v>2293</v>
+      </c>
+      <c r="BM186" s="42" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="187" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A187" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="I187" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="J187" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="K187" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="L187" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="M187" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="N187" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="O187" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="BL187" s="42" t="s">
+        <v>2294</v>
+      </c>
+      <c r="BM187" s="42" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="188" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A188" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I188" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BL188" s="42" t="s">
+        <v>2295</v>
+      </c>
+      <c r="BM188" s="42" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="189" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A189" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="H189" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I189" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J189" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BL189" s="42" t="s">
+        <v>2296</v>
+      </c>
+      <c r="BM189" s="42" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="190" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A190" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="BL190" s="42" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="191" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A191" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL191" s="42" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="192" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A192" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="BL192" s="42" t="s">
+        <v>2627</v>
+      </c>
+      <c r="BM192" s="42" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="193" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A193" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H193" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I193" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="J193" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K193" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L193" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M193" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BL193" s="42" t="s">
+        <v>2299</v>
+      </c>
+      <c r="BM193" s="42" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="194" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A194" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="BL194" s="42" t="s">
+        <v>2300</v>
+      </c>
+      <c r="BM194" s="42" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="195" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A195" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I195" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="BL195" s="42" t="s">
+        <v>2301</v>
+      </c>
+      <c r="BM195" s="42" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="197" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="BL197" s="42" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="198" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="G198" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="H198" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="I198" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="J198" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="K198" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="L198" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M198" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="N198" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O198" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="P198" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q198" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="R198" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="S198" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="T198" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="U198" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="V198" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="W198" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="X198" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y198" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z198" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="AA198" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="AB198" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="AC198" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD198" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="AE198" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="AF198" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="AG198" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH198" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="AI198" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="AJ198" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="AK198" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="AL198" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="AM198" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="AN198" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="AO198" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="AP198" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="AQ198" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="AR198" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AS198" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="AT198" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="AU198" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="AV198" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="AW198" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AX198" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AY198" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AZ198" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BA198" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BB198" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BC198" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="BD198" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="BE198" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="BF198" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="BG198" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="BH198" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="BI198" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="BJ198" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="BK198" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="BL198" s="42" t="s">
+        <v>2303</v>
+      </c>
+      <c r="BM198" s="42" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="199" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="H199" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="I199" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="J199" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="K199" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L199" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="M199" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="N199" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="O199" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="P199" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q199" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="R199" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="S199" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="T199" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="U199" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="V199" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="W199" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="X199" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="Y199" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="Z199" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="AA199" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="AB199" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="AC199" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="AD199" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="AE199" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="AF199" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="AG199" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="AH199" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="BL199" s="42" t="s">
+        <v>2304</v>
+      </c>
+      <c r="BM199" s="42" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="200" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I200" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="J200" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="K200" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="L200" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="M200" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="N200" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="O200" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="P200" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q200" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="R200" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="S200" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="T200" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="U200" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="V200" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="W200" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="X200" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="Y200" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z200" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="AA200" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="AB200" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="AC200" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD200" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AE200" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF200" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AG200" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AH200" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AI200" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AJ200" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AK200" s="17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AL200" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AM200" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AN200" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="AO200" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="AP200" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="AQ200" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AR200" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AS200" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BL200" s="42" t="s">
+        <v>2305</v>
+      </c>
+      <c r="BM200" s="42" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A201" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="G201" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="H201" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="I201" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="J201" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="K201" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="L201" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="M201" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="N201" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="O201" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="P201" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q201" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="R201" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="S201" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="T201" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="U201" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="V201" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W201" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X201" s="17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Y201" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Z201" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AA201" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB201" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AC201" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AD201" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AE201" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="AF201" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AG201" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AH201" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AI201" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AJ201" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AK201" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL201" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="AM201" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AN201" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="AO201" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="AP201" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="AQ201" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AR201" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AS201" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AT201" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="AU201" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AV201" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AW201" s="17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AX201" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="BL201" s="42" t="s">
+        <v>2306</v>
+      </c>
+      <c r="BM201" s="42" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="202" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A202" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="H202" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="I202" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="J202" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="K202" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="L202" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="M202" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="N202" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="O202" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="BL202" s="42" t="s">
+        <v>2307</v>
+      </c>
+      <c r="BM202" s="42" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="204" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A204" s="17" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G204" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H204" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="I204" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="J204" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K204" s="17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L204" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M204" s="17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N204" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O204" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="P204" s="17" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q204" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R204" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="S204" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T204" s="17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U204" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V204" s="17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W204" s="17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="X204" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BL204" s="42" t="s">
+        <v>2308</v>
+      </c>
+      <c r="BM204" s="42" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="205" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A205" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="G205" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="H205" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="I205" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="J205" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="K205" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="L205" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="M205" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="N205" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="BL205" s="42" t="s">
+        <v>2309</v>
+      </c>
+      <c r="BM205" s="42" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="206" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A206" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="H206" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="I206" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="J206" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="K206" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L206" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="M206" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N206" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O206" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="P206" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q206" s="17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BL206" s="42" t="s">
+        <v>2310</v>
+      </c>
+      <c r="BM206" s="42" t="s">
         <v>2674</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f>A1&amp;A2&amp;A3&amp;A4&amp;A5&amp;A6&amp;A7&amp;A8&amp;A9&amp;A10&amp;A11&amp;A12&amp;A13&amp;A14&amp;A15&amp;A16&amp;A17&amp;A19&amp;A18&amp;A20&amp;A21&amp;A22&amp;A23&amp;A24&amp;A25&amp;A26&amp;A27&amp;A28&amp;A29&amp;A30&amp;A31&amp;A32&amp;A33&amp;A34&amp;A35&amp;A36&amp;A37&amp;A38&amp;A39&amp;A40&amp;A41&amp;A42&amp;A43&amp;A44&amp;A45&amp;A46&amp;A47&amp;A48&amp;A49&amp;A50&amp;A51&amp;A52&amp;A53&amp;A54&amp;A55&amp;A56&amp;A57&amp;A58&amp;A59&amp;A60&amp;A61&amp;A62&amp;A63&amp;A64&amp;A65&amp;A66&amp;A67&amp;A68&amp;A69&amp;A70&amp;A71&amp;A72&amp;A73&amp;A74&amp;A75&amp;A76&amp;A77&amp;A78&amp;A79&amp;A80&amp;A81&amp;A82&amp;A83&amp;A84&amp;A85&amp;A86&amp;A87&amp;A88&amp;A89&amp;A90&amp;A91&amp;A92</f>
-        <v>"AxisDeer","axis","deer""BeceiteIbex","beceite","ibex""BighornSheep","big","horn","sheep","bighorn""BlackBear","black","bear""Blackbuck","black","buck","blackbuck""BlacktailDeer","black","tail","deer","blacktail""BlueWildebeest","blue","wilde","beest","beast","wild","wildebeest","wildebeast""BrownBear","brown","bear","eurasian","asian""CanadaGoose","canada","goose","geese","canadian""CapeBuffalo","cape","buffalo""Caribou","caribou""Chamois","chamois""CinnamonTeal","cinnamon","teal""Coyote","coyote""EurasianLynx","eurasian","lynx","asian""EuropeanBison","european","bison","europe""EuropeanHare","european","hare","europe""FallowDeer","fallow","deer""EuropeanRabbit","european","rabbit","europe""FeralGoat","feral","goat""FeralPig","feral","pig","hog""Gemsbok","gems","bok","gemsbok""GredosIbex","gredos","ibex","gredo""GreyWolf","grey","wolf","wolves","gray""GrizzlyBear","grizzly","bear","grizzlie""HarlequinDuck","harlequin","duck","harley","harle","quin""IberianMouflon","iberian","mou","flon","mouflon""IberianWolf","iberian","wolf","wolves""Jackrabbit","jack","rabbit","jackrabbit""LesserKudu","lesser","kudu""Lion","lion","lioness""Mallard","mallard""Moose","moose""MountainGoat","mountain","goat""MountainLion","mountain","lion""MuleDeer","mule","deer""MuskDeer","musk","deer""PlainsBison","plains","bison""Pronghorn","prong","horn","pronghorn""Puma","puma""RedDeer","red","deer","reddeer""RedFox","red","fox""Reindeer","rein","deer","rain","reindeer","raindeer""RockyMountainElk","rocky","mountain","elk","rockymountain""RoeDeer","roe","deer","roedeer""RondaIbex","ronda","ibez""RooseveltElk","roosevelt","elk""ScrubHare","scrub","hare","scrubhare""SideStripedJackal","side","striped","jackal","sidestriped""SikaDeer","sika","deer""SoutheasternIbex","south","eastern","ibex","southeastern""Springbok","spring","bok","springbok""Turkey","turkey""Warthog","wart","hog","warthog""WaterBuffalo","water","buffalo""WhitetailDeer","white","tail","deer","whitetail""WildBoar","wild","boar"</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>2685</v>
-      </c>
-      <c r="B95" t="str">
-        <f>LOWER(A95)</f>
-        <v>"axisdeer","axis","deer","beceiteibex","beceite","ibex","bighornsheep","big","horn","sheep","bighorn","blackbear","black","bear","blackbuck","black","buck","blackbuck","blacktaildeer","black","tail","deer","blacktail","bluewildebeest","blue","wilde","beest","beast","wild","wildebeest","wildebeast","brownbear","brown","bear","eurasian","asian","canadagoose","canada","goose","geese","canadian","capebuffalo","cape","buffalo","caribou","caribou","chamois","chamois","cinnamonteal","cinnamon","teal","coyote","coyote","eurasianlynx","eurasian","lynx","asian","europeanbison","european","bison","europe","europeanhare","european","hare","europe","fallowdeer","fallow","deer","europeanrabbit","european","rabbit","europe","feralgoat","feral","goat","feralpig","feral","pig","hog","gemsbok","gems","bok","gemsbok","gredosibex","gredos","ibex","gredo","greywolf","grey","wolf","wolves","gray","grizzlybear","grizzly","bear","grizzlie","harlequinduck","harlequin","duck","harley","harle","quin","iberianmouflon","iberian","mou","flon","mouflon","iberianwolf","iberian","wolf","wolves","jackrabbit","jack","rabbit","jackrabbit","lesserkudu","lesser","kudu","lion","lion","lioness","mallard","mallard","moose","moose","mountaingoat","mountain","goat","mountainlion","mountain","lion","muledeer","mule","deer","muskdeer","musk","deer","plainsbison","plains","bison","pronghorn","prong","horn","pronghorn","puma","puma","reddeer","red","deer","reddeer","redfox","red","fox","reindeer","rein","deer","rain","reindeer","raindeer","rockymountainelk","rocky","mountain","elk","rockymountain","roedeer","roe","deer","roedeer","rondaibex","ronda","ibez","rooseveltelk","roosevelt","elk","scrubhare","scrub","hare","scrubhare","sidestripedjackal","side","striped","jackal","sidestriped","sikadeer","sika","deer","southeasternibex","south","eastern","ibex","southeastern","springbok","spring","bok","springbok","turkey","turkey","warthog","wart","hog","warthog","waterbuffalo","water","buffalo","whitetaildeer","white","tail","deer","whitetail","wildboar","wild","boar"</v>
+    <row r="207" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A207" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G207" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I207" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J207" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="K207" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="L207" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M207" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="N207" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O207" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P207" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q207" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R207" s="17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BL207" s="42" t="s">
+        <v>2311</v>
+      </c>
+      <c r="BM207" s="42" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="208" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A208" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="BL208" s="42" t="s">
+        <v>2312</v>
+      </c>
+      <c r="BM208" s="42" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="209" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A209" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="G209" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="I209" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="J209" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="BL209" s="42" t="s">
+        <v>2313</v>
+      </c>
+      <c r="BM209" s="42" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="212" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A212" s="17" t="s">
+        <v>2065</v>
+      </c>
+      <c r="BL212" s="42" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A213" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="BL213" s="42" t="s">
+        <v>2315</v>
+      </c>
+      <c r="BM213" s="42" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="214" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A214" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>2073</v>
+      </c>
+      <c r="BL214" s="42" t="s">
+        <v>2316</v>
+      </c>
+      <c r="BM214" s="42" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="215" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A215" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F215" s="17" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G215" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="H215" s="17" t="s">
+        <v>2079</v>
+      </c>
+      <c r="BL215" s="42" t="s">
+        <v>2317</v>
+      </c>
+      <c r="BM215" s="42" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="216" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A216" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B216" s="17" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>2081</v>
+      </c>
+      <c r="BL216" s="42" t="s">
+        <v>2318</v>
+      </c>
+      <c r="BM216" s="42" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="217" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A217" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>2084</v>
+      </c>
+      <c r="BL217" s="42" t="s">
+        <v>2319</v>
+      </c>
+      <c r="BM217" s="42" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="218" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A218" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="BL218" s="42" t="s">
+        <v>2320</v>
+      </c>
+      <c r="BM218" s="42" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="219" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A219" s="20"/>
+    </row>
+    <row r="220" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A220" s="17" t="s">
+        <v>2066</v>
+      </c>
+      <c r="BL220" s="42" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="221" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A221" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="F221" s="17" t="s">
+        <v>2090</v>
+      </c>
+      <c r="BL221" s="42" t="s">
+        <v>2322</v>
+      </c>
+      <c r="BM221" s="42" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="222" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A222" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F222" s="17" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G222" s="17" t="s">
+        <v>2095</v>
+      </c>
+      <c r="BL222" s="42" t="s">
+        <v>2323</v>
+      </c>
+      <c r="BM222" s="42" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="223" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A223" s="20" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>2098</v>
+      </c>
+      <c r="BL223" s="42" t="s">
+        <v>2324</v>
+      </c>
+      <c r="BM223" s="42" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="224" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A224" s="20" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F224" s="17" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G224" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="H224" s="17" t="s">
+        <v>2104</v>
+      </c>
+      <c r="BL224" s="42" t="s">
+        <v>2325</v>
+      </c>
+      <c r="BM224" s="42" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="225" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A225" s="20" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BL225" s="42" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="226" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A226" s="20"/>
+    </row>
+    <row r="227" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A227" s="17" t="s">
+        <v>2067</v>
+      </c>
+      <c r="BL227" s="42" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="228" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A228" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F228" s="17" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>2095</v>
+      </c>
+      <c r="BL228" s="42" t="s">
+        <v>2323</v>
+      </c>
+      <c r="BM228" s="42" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="229" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A229" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E229" s="17" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F229" s="17" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G229" s="17" t="s">
+        <v>2109</v>
+      </c>
+      <c r="BL229" s="42" t="s">
+        <v>2328</v>
+      </c>
+      <c r="BM229" s="42" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="230" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A230" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F230" s="17" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G230" s="17" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="BL230" s="42" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BM230" s="42" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="231" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A231" s="21"/>
+    </row>
+    <row r="232" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A232" s="17" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BL232" s="42" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="233" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A233" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E233" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F233" s="17" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G233" s="17" t="s">
+        <v>2095</v>
+      </c>
+      <c r="BL233" s="42" t="s">
+        <v>2323</v>
+      </c>
+      <c r="BM233" s="42" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="234" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A234" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F234" s="17" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G234" s="17" t="s">
+        <v>2109</v>
+      </c>
+      <c r="BL234" s="42" t="s">
+        <v>2328</v>
+      </c>
+      <c r="BM234" s="42" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="235" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A235" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E235" s="17" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F235" s="17" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G235" s="17" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H235" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="BL235" s="42" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BM235" s="42" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="236" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A236" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F236" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="BL236" s="42" t="s">
+        <v>2331</v>
+      </c>
+      <c r="BM236" s="42" t="s">
+        <v>2793</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>